--- a/data/nzd0078/nzd0078.xlsx
+++ b/data/nzd0078/nzd0078.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I320"/>
+  <dimension ref="A1:I325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10643,6 +10643,171 @@
       <c r="I320" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>344.8914285714285</v>
+      </c>
+      <c r="C321" t="n">
+        <v>351.4114285714285</v>
+      </c>
+      <c r="D321" t="n">
+        <v>352.12</v>
+      </c>
+      <c r="E321" t="n">
+        <v>343.6214285714286</v>
+      </c>
+      <c r="F321" t="n">
+        <v>345.01</v>
+      </c>
+      <c r="G321" t="n">
+        <v>351.99</v>
+      </c>
+      <c r="H321" t="n">
+        <v>356.88</v>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>349.4747619047619</v>
+      </c>
+      <c r="C322" t="n">
+        <v>345.6147619047619</v>
+      </c>
+      <c r="D322" t="n">
+        <v>354.23</v>
+      </c>
+      <c r="E322" t="n">
+        <v>346.5847619047619</v>
+      </c>
+      <c r="F322" t="n">
+        <v>351.2755555555556</v>
+      </c>
+      <c r="G322" t="n">
+        <v>348.5</v>
+      </c>
+      <c r="H322" t="n">
+        <v>350.31</v>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>351.6647619047619</v>
+      </c>
+      <c r="C323" t="n">
+        <v>353.964761904762</v>
+      </c>
+      <c r="D323" t="n">
+        <v>359.06</v>
+      </c>
+      <c r="E323" t="n">
+        <v>354.9347619047619</v>
+      </c>
+      <c r="F323" t="n">
+        <v>354.4888888888889</v>
+      </c>
+      <c r="G323" t="n">
+        <v>357.7</v>
+      </c>
+      <c r="H323" t="n">
+        <v>369.71</v>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>345.75</v>
+      </c>
+      <c r="C324" t="n">
+        <v>351.51</v>
+      </c>
+      <c r="D324" t="n">
+        <v>355.42</v>
+      </c>
+      <c r="E324" t="n">
+        <v>350.48</v>
+      </c>
+      <c r="F324" t="n">
+        <v>352.0866666666667</v>
+      </c>
+      <c r="G324" t="n">
+        <v>354.66</v>
+      </c>
+      <c r="H324" t="n">
+        <v>359.12</v>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>354.4023809523809</v>
+      </c>
+      <c r="C325" t="n">
+        <v>347.2123809523809</v>
+      </c>
+      <c r="D325" t="n">
+        <v>357.2</v>
+      </c>
+      <c r="E325" t="n">
+        <v>352.6523809523809</v>
+      </c>
+      <c r="F325" t="n">
+        <v>355.8444444444444</v>
+      </c>
+      <c r="G325" t="n">
+        <v>363.07</v>
+      </c>
+      <c r="H325" t="n">
+        <v>350.49</v>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10657,7 +10822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B323"/>
+  <dimension ref="A1:B328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13895,6 +14060,56 @@
       </c>
       <c r="B323" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>-0.32</v>
       </c>
     </row>
   </sheetData>
@@ -14057,28 +14272,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.4228192696172597</v>
+        <v>0.4352499996945172</v>
       </c>
       <c r="J2" t="n">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K2" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08820041972934622</v>
+        <v>0.09572484149902449</v>
       </c>
       <c r="M2" t="n">
-        <v>7.263928861741014</v>
+        <v>7.214857284038014</v>
       </c>
       <c r="N2" t="n">
-        <v>92.39001280708176</v>
+        <v>91.26960014428109</v>
       </c>
       <c r="O2" t="n">
-        <v>9.611972368202157</v>
+        <v>9.553512450626789</v>
       </c>
       <c r="P2" t="n">
-        <v>334.8723094679675</v>
+        <v>334.7471459874212</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -14134,28 +14349,28 @@
         <v>0.1225</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4690612008258387</v>
+        <v>0.4812502972510033</v>
       </c>
       <c r="J3" t="n">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K3" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L3" t="n">
-        <v>0.125487975438818</v>
+        <v>0.1349716514771713</v>
       </c>
       <c r="M3" t="n">
-        <v>6.733208601364592</v>
+        <v>6.684843085631949</v>
       </c>
       <c r="N3" t="n">
-        <v>76.57080867369424</v>
+        <v>75.65580637325654</v>
       </c>
       <c r="O3" t="n">
-        <v>8.750474768473666</v>
+        <v>8.698034627044004</v>
       </c>
       <c r="P3" t="n">
-        <v>334.4740655200229</v>
+        <v>334.3519723134589</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -14211,28 +14426,28 @@
         <v>0.0901</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4286064309020868</v>
+        <v>0.4422743407835203</v>
       </c>
       <c r="J4" t="n">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K4" t="n">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09100475148890541</v>
+        <v>0.0995908124041005</v>
       </c>
       <c r="M4" t="n">
-        <v>6.82288242090876</v>
+        <v>6.767260065992114</v>
       </c>
       <c r="N4" t="n">
-        <v>91.11541818797323</v>
+        <v>89.82807497518534</v>
       </c>
       <c r="O4" t="n">
-        <v>9.545439653990446</v>
+        <v>9.477767404572944</v>
       </c>
       <c r="P4" t="n">
-        <v>341.0360448722089</v>
+        <v>340.8992682129339</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -14288,28 +14503,28 @@
         <v>0.1191</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3741776348242435</v>
+        <v>0.3903263129921759</v>
       </c>
       <c r="J5" t="n">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K5" t="n">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07976897620266432</v>
+        <v>0.088634698107383</v>
       </c>
       <c r="M5" t="n">
-        <v>6.542474306313131</v>
+        <v>6.516796411159643</v>
       </c>
       <c r="N5" t="n">
-        <v>79.70535833082674</v>
+        <v>79.00096619992991</v>
       </c>
       <c r="O5" t="n">
-        <v>8.927785746243396</v>
+        <v>8.888248770141951</v>
       </c>
       <c r="P5" t="n">
-        <v>335.524873711727</v>
+        <v>335.3632371357065</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -14365,28 +14580,28 @@
         <v>0.09909999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5216007905850466</v>
+        <v>0.5277525909614447</v>
       </c>
       <c r="J6" t="n">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K6" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1646671929358207</v>
+        <v>0.1727596203902465</v>
       </c>
       <c r="M6" t="n">
-        <v>6.179342413300093</v>
+        <v>6.137747064226706</v>
       </c>
       <c r="N6" t="n">
-        <v>67.68039786531286</v>
+        <v>66.83578727152437</v>
       </c>
       <c r="O6" t="n">
-        <v>8.226809701537581</v>
+        <v>8.175315729164494</v>
       </c>
       <c r="P6" t="n">
-        <v>336.7667989237574</v>
+        <v>336.7046659678452</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -14442,28 +14657,28 @@
         <v>0.0885</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5765098511662945</v>
+        <v>0.5907251372834184</v>
       </c>
       <c r="J7" t="n">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K7" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1885089043148663</v>
+        <v>0.2006996707592669</v>
       </c>
       <c r="M7" t="n">
-        <v>6.655174158471891</v>
+        <v>6.618133880142033</v>
       </c>
       <c r="N7" t="n">
-        <v>70.62749876789717</v>
+        <v>70.11210781362048</v>
       </c>
       <c r="O7" t="n">
-        <v>8.404016823394464</v>
+        <v>8.373297308326062</v>
       </c>
       <c r="P7" t="n">
-        <v>336.5315262565614</v>
+        <v>336.3888635698211</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -14519,28 +14734,28 @@
         <v>0.0464</v>
       </c>
       <c r="I8" t="n">
-        <v>0.47977074206189</v>
+        <v>0.5081065241858405</v>
       </c>
       <c r="J8" t="n">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K8" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04755442768807183</v>
+        <v>0.05454788102633901</v>
       </c>
       <c r="M8" t="n">
-        <v>12.00619416253877</v>
+        <v>11.93860843766758</v>
       </c>
       <c r="N8" t="n">
-        <v>228.703203124431</v>
+        <v>226.7613457523144</v>
       </c>
       <c r="O8" t="n">
-        <v>15.12293632613822</v>
+        <v>15.05859707118543</v>
       </c>
       <c r="P8" t="n">
-        <v>337.0114886214938</v>
+        <v>336.7276898407166</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -14577,7 +14792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I320"/>
+  <dimension ref="A1:I325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28897,6 +29112,241 @@
         </is>
       </c>
     </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>-35.454369252578,174.42790229689604</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>-35.45509262495383,174.42814903678277</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>-35.45572884639816,174.428617154614</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>-35.45630364037341,174.4292179615125</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>-35.45676162541802,174.42995609204402</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>-35.457033746674284,174.4308085404256</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>-35.45709995882541,174.43172200961794</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>-35.454361033428384,174.4279517854392</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>-35.45511141463394,174.42808944178887</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>-35.455716888545915,174.42863523405128</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>-35.45628333822225,174.42923918223812</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>-35.456713661605036,174.42999255040178</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>-35.45706388446605,174.43079750208017</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>-35.4571586330176,174.4317121354583</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>-35.45435710616217,174.42797543196113</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>-35.45508434840932,174.4281752873576</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>-35.45568951582219,174.42867661966244</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>-35.45622613135428,174.42929897736403</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>-35.456689063029074,174.43001124830514</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>-35.45698443813613,174.4308266002804</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>-35.45698537893115,174.4317412919961</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>-35.454367712929994,174.42791156732213</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>-35.455092305437944,174.42815005018628</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>-35.45571014454279,174.42864543050882</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>-35.45625665147469,174.42926707641058</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>-35.456707452421185,174.4299972701364</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>-35.45701068996763,174.43081698522897</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>-35.457079954229954,174.43172537614737</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>-35.454352196859475,174.42800499139548</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>-35.455106236013904,174.4281058667654</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>-35.45570005687271,174.42866068234966</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>-35.45624176822722,174.42928263303034</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>-35.45667868603562,174.43001913607569</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>-35.45693806565567,174.43084358474803</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>-35.457157025505495,174.4317124059834</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0078/nzd0078.xlsx
+++ b/data/nzd0078/nzd0078.xlsx
@@ -14123,7 +14123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14214,35 +14214,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -14295,27 +14300,28 @@
       <c r="P2" t="n">
         <v>334.7471459874212</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.42417830074456 -35.45498767810652, 174.4341773660576 -35.453326903062994)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.4241783007446</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.45498767810652</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.4341773660576</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.45332690306299</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.4291778334011</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.45415729058476</v>
       </c>
     </row>
@@ -14372,27 +14378,28 @@
       <c r="P3" t="n">
         <v>334.3519723134589</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.4245361567002 -35.456231659949694, 174.43405543961484 -35.45323020993189)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.4245361567002</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.45623165994969</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.4340554396148</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.45323020993189</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.4292957981575</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.45473093494079</v>
       </c>
     </row>
@@ -14449,27 +14456,28 @@
       <c r="P4" t="n">
         <v>340.8992682129339</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.42559995525562 -35.45772435440264, 174.43353028323884 -35.45247904565866)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.4255999552556</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.45772435440264</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.4335302832388</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.45247904565866</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.4295651192472</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.45510170003065</v>
       </c>
     </row>
@@ -14526,27 +14534,28 @@
       <c r="P5" t="n">
         <v>335.3632371357065</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.42675718217427 -35.45865780782451, 174.43338302853522 -35.45231860254128)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.4267571821743</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.45865780782451</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.4333830285352</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.45231860254128</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.4300701053547</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.4554882051829</v>
       </c>
     </row>
@@ -14603,27 +14612,28 @@
       <c r="P6" t="n">
         <v>336.7046659678452</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.42794846307623 -35.45940271520907, 174.4333311563087 -35.45232118319175)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.4279484630762</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.45940271520907</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.4333311563087</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.45232118319175</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.4306398096925</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.45586194920041</v>
       </c>
     </row>
@@ -14680,27 +14690,28 @@
       <c r="P7" t="n">
         <v>336.3888635698211</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.4296952092883 -35.46007334105946, 174.43262006576163 -35.452087467881036)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.4296952092883</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.46007334105946</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.4326200657616</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.45208746788104</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.431157637525</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.45608040447025</v>
       </c>
     </row>
@@ -14757,27 +14768,28 @@
       <c r="P8" t="n">
         <v>336.7276898407166</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.43118563022117 -35.46028711802771, 174.4325753168972 -35.45202914680087)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.4311856302212</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-35.46028711802771</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.4325753168972</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-35.45202914680087</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.4318804735592</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-35.45615813241429</v>
       </c>
     </row>

--- a/data/nzd0078/nzd0078.xlsx
+++ b/data/nzd0078/nzd0078.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I325"/>
+  <dimension ref="A1:I329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10806,6 +10806,132 @@
         <v>350.49</v>
       </c>
       <c r="I325" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>354.9490476190476</v>
+      </c>
+      <c r="C326" t="n">
+        <v>348.4490476190476</v>
+      </c>
+      <c r="D326" t="n">
+        <v>357.11</v>
+      </c>
+      <c r="E326" t="n">
+        <v>347.6090476190476</v>
+      </c>
+      <c r="F326" t="n">
+        <v>347.0888888888889</v>
+      </c>
+      <c r="G326" t="n">
+        <v>354.25</v>
+      </c>
+      <c r="H326" t="n">
+        <v>345.1</v>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:11:06+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>338.942380952381</v>
+      </c>
+      <c r="C327" t="n">
+        <v>347.572380952381</v>
+      </c>
+      <c r="D327" t="n">
+        <v>348.325</v>
+      </c>
+      <c r="E327" t="inlineStr"/>
+      <c r="F327" t="inlineStr"/>
+      <c r="G327" t="inlineStr"/>
+      <c r="H327" t="n">
+        <v>350.38</v>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>358.7061904761905</v>
+      </c>
+      <c r="C328" t="n">
+        <v>352.6661904761905</v>
+      </c>
+      <c r="D328" t="n">
+        <v>359.1</v>
+      </c>
+      <c r="E328" t="n">
+        <v>353.8461904761905</v>
+      </c>
+      <c r="F328" t="n">
+        <v>354.6955555555556</v>
+      </c>
+      <c r="G328" t="n">
+        <v>356.69</v>
+      </c>
+      <c r="H328" t="n">
+        <v>345.56</v>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:08+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>339.2904761904762</v>
+      </c>
+      <c r="C329" t="n">
+        <v>343.8204761904762</v>
+      </c>
+      <c r="D329" t="n">
+        <v>342.11</v>
+      </c>
+      <c r="E329" t="n">
+        <v>339.8604761904762</v>
+      </c>
+      <c r="F329" t="n">
+        <v>344.4322222222222</v>
+      </c>
+      <c r="G329" t="n">
+        <v>353.82</v>
+      </c>
+      <c r="H329" t="n">
+        <v>336.35</v>
+      </c>
+      <c r="I329" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10822,7 +10948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B328"/>
+  <dimension ref="A1:B332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14110,6 +14236,46 @@
       </c>
       <c r="B328" t="n">
         <v>-0.32</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -14277,28 +14443,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.4352499996945172</v>
+        <v>0.4407645755399454</v>
       </c>
       <c r="J2" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K2" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09572484149902449</v>
+        <v>0.09939665593093205</v>
       </c>
       <c r="M2" t="n">
-        <v>7.214857284038014</v>
+        <v>7.240230619954293</v>
       </c>
       <c r="N2" t="n">
-        <v>91.26960014428109</v>
+        <v>91.18147655580563</v>
       </c>
       <c r="O2" t="n">
-        <v>9.553512450626789</v>
+        <v>9.548899232676279</v>
       </c>
       <c r="P2" t="n">
-        <v>334.7471459874212</v>
+        <v>334.6914308133373</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14355,28 +14521,28 @@
         <v>0.1225</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4812502972510033</v>
+        <v>0.4851361226812292</v>
       </c>
       <c r="J3" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K3" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1349716514771713</v>
+        <v>0.1400784093422018</v>
       </c>
       <c r="M3" t="n">
-        <v>6.684843085631949</v>
+        <v>6.63483333191118</v>
       </c>
       <c r="N3" t="n">
-        <v>75.65580637325654</v>
+        <v>74.82135265941017</v>
       </c>
       <c r="O3" t="n">
-        <v>8.698034627044004</v>
+        <v>8.649933679480448</v>
       </c>
       <c r="P3" t="n">
-        <v>334.3519723134589</v>
+        <v>334.3127704211503</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14433,28 +14599,28 @@
         <v>0.0901</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4422743407835203</v>
+        <v>0.44060916889905</v>
       </c>
       <c r="J4" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K4" t="n">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0995908124041005</v>
+        <v>0.1010841994111992</v>
       </c>
       <c r="M4" t="n">
-        <v>6.767260065992114</v>
+        <v>6.762868290957003</v>
       </c>
       <c r="N4" t="n">
-        <v>89.82807497518534</v>
+        <v>89.23412618274735</v>
       </c>
       <c r="O4" t="n">
-        <v>9.477767404572944</v>
+        <v>9.446381644987003</v>
       </c>
       <c r="P4" t="n">
-        <v>340.8992682129339</v>
+        <v>340.9164042242514</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14511,28 +14677,28 @@
         <v>0.1191</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3903263129921759</v>
+        <v>0.3938881048021545</v>
       </c>
       <c r="J5" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K5" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L5" t="n">
-        <v>0.088634698107383</v>
+        <v>0.09161263711669676</v>
       </c>
       <c r="M5" t="n">
-        <v>6.516796411159643</v>
+        <v>6.505837665670095</v>
       </c>
       <c r="N5" t="n">
-        <v>79.00096619992991</v>
+        <v>78.57946456125833</v>
       </c>
       <c r="O5" t="n">
-        <v>8.888248770141951</v>
+        <v>8.864505883649597</v>
       </c>
       <c r="P5" t="n">
-        <v>335.3632371357065</v>
+        <v>335.3274984771624</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14589,28 +14755,28 @@
         <v>0.09909999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5277525909614447</v>
+        <v>0.5246727864292695</v>
       </c>
       <c r="J6" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K6" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1727596203902465</v>
+        <v>0.1738846931035367</v>
       </c>
       <c r="M6" t="n">
-        <v>6.137747064226706</v>
+        <v>6.121463148974157</v>
       </c>
       <c r="N6" t="n">
-        <v>66.83578727152437</v>
+        <v>66.38622029013555</v>
       </c>
       <c r="O6" t="n">
-        <v>8.175315729164494</v>
+        <v>8.147773946921671</v>
       </c>
       <c r="P6" t="n">
-        <v>336.7046659678452</v>
+        <v>336.736017673761</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14667,28 +14833,28 @@
         <v>0.0885</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5907251372834184</v>
+        <v>0.5978262571163501</v>
       </c>
       <c r="J7" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K7" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2006996707592669</v>
+        <v>0.2079950608332107</v>
       </c>
       <c r="M7" t="n">
-        <v>6.618133880142033</v>
+        <v>6.579902321875211</v>
       </c>
       <c r="N7" t="n">
-        <v>70.11210781362048</v>
+        <v>69.54357598442992</v>
       </c>
       <c r="O7" t="n">
-        <v>8.373297308326062</v>
+        <v>8.339279104600704</v>
       </c>
       <c r="P7" t="n">
-        <v>336.3888635698211</v>
+        <v>336.3170869734584</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14745,28 +14911,28 @@
         <v>0.0464</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5081065241858405</v>
+        <v>0.4933529636054136</v>
       </c>
       <c r="J8" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K8" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05454788102633901</v>
+        <v>0.05290817810507553</v>
       </c>
       <c r="M8" t="n">
-        <v>11.93860843766758</v>
+        <v>11.8558885101901</v>
       </c>
       <c r="N8" t="n">
-        <v>226.7613457523144</v>
+        <v>224.467139579819</v>
       </c>
       <c r="O8" t="n">
-        <v>15.05859707118543</v>
+        <v>14.98222745721807</v>
       </c>
       <c r="P8" t="n">
-        <v>336.7276898407166</v>
+        <v>336.8771957454513</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14804,7 +14970,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I325"/>
+  <dimension ref="A1:I329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29359,6 +29525,182 @@
         </is>
       </c>
     </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>-35.454351216535166,174.4280108940269</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>-35.45510222740547,174.42811858082175</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>-35.45570056692348,174.42865991118927</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>-35.45627632071747,174.42924651724783</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>-35.45674571119784,174.42996818880124</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>-35.457014230510644,174.4308156884617</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>-35.45720516156197,174.43170430525555</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:11:06+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>-35.454379920790785,174.4278380620364</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>-35.4551050690876,174.42810956789245</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>-35.45575035352395,174.4285846373186</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr"/>
+      <c r="F327" t="inlineStr"/>
+      <c r="G327" t="inlineStr"/>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>-35.45715800787401,174.43171224066248</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>-35.4543444789327,174.4280514617596</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-35.45508855768583,174.42816193687014</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>-35.45568928913291,174.42867696240026</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>-35.45623358929144,174.42929118200766</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>-35.4566874809629,174.43001245086703</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>-35.456993159961804,174.43082340580673</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>-35.45720105347555,174.43170499659817</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:08+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>-35.45437929656505,174.42784182059626</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>-35.45511723073872,174.4280709948976</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>-35.45578557532047,174.428531384319</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>-35.45632940710298,174.42919102894203</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>-35.45676604839724,174.42995273003692</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>-35.45701794376304,174.43081432843738</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>-35.45728330450934,174.43169115470488</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0078/nzd0078.xlsx
+++ b/data/nzd0078/nzd0078.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I329"/>
+  <dimension ref="A1:I333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10932,6 +10932,136 @@
         <v>336.35</v>
       </c>
       <c r="I329" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:48+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>360.7552380952381</v>
+      </c>
+      <c r="C330" t="n">
+        <v>348.7352380952381</v>
+      </c>
+      <c r="D330" t="n">
+        <v>359.625</v>
+      </c>
+      <c r="E330" t="n">
+        <v>348.6552380952381</v>
+      </c>
+      <c r="F330" t="n">
+        <v>347.2744444444444</v>
+      </c>
+      <c r="G330" t="n">
+        <v>353.495</v>
+      </c>
+      <c r="H330" t="n">
+        <v>344.97</v>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>341.257619047619</v>
+      </c>
+      <c r="C331" t="n">
+        <v>340.8976190476191</v>
+      </c>
+      <c r="D331" t="n">
+        <v>346.64</v>
+      </c>
+      <c r="E331" t="n">
+        <v>341.1576190476191</v>
+      </c>
+      <c r="F331" t="n">
+        <v>348.2055555555555</v>
+      </c>
+      <c r="G331" t="n">
+        <v>355.01</v>
+      </c>
+      <c r="H331" t="n">
+        <v>354.95</v>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>352.9038095238095</v>
+      </c>
+      <c r="C332" t="n">
+        <v>347.9438095238095</v>
+      </c>
+      <c r="D332" t="n">
+        <v>356.625</v>
+      </c>
+      <c r="E332" t="n">
+        <v>350.8338095238095</v>
+      </c>
+      <c r="F332" t="n">
+        <v>346.6777777777777</v>
+      </c>
+      <c r="G332" t="n">
+        <v>357.835</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>344.1838095238095</v>
+      </c>
+      <c r="C333" t="n">
+        <v>344.4538095238095</v>
+      </c>
+      <c r="D333" t="n">
+        <v>347.935</v>
+      </c>
+      <c r="E333" t="n">
+        <v>345.4338095238095</v>
+      </c>
+      <c r="F333" t="n">
+        <v>351.4377777777778</v>
+      </c>
+      <c r="G333" t="n">
+        <v>353.595</v>
+      </c>
+      <c r="H333" t="n">
+        <v>351.88</v>
+      </c>
+      <c r="I333" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10948,7 +11078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B332"/>
+  <dimension ref="A1:B336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14276,6 +14406,46 @@
       </c>
       <c r="B332" t="n">
         <v>0.02</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -14443,28 +14613,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.4407645755399454</v>
+        <v>0.4504536081522188</v>
       </c>
       <c r="J2" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K2" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09939665593093205</v>
+        <v>0.1050041857705142</v>
       </c>
       <c r="M2" t="n">
-        <v>7.240230619954293</v>
+        <v>7.24449860814081</v>
       </c>
       <c r="N2" t="n">
-        <v>91.18147655580563</v>
+        <v>90.93361348671665</v>
       </c>
       <c r="O2" t="n">
-        <v>9.548899232676279</v>
+        <v>9.535911780564911</v>
       </c>
       <c r="P2" t="n">
-        <v>334.6914308133373</v>
+        <v>334.5925742211801</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14521,28 +14691,28 @@
         <v>0.1225</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4851361226812292</v>
+        <v>0.4817884750538484</v>
       </c>
       <c r="J3" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K3" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1400784093422018</v>
+        <v>0.141581804660556</v>
       </c>
       <c r="M3" t="n">
-        <v>6.63483333191118</v>
+        <v>6.586009805019573</v>
       </c>
       <c r="N3" t="n">
-        <v>74.82135265941017</v>
+        <v>73.99880027216975</v>
       </c>
       <c r="O3" t="n">
-        <v>8.649933679480448</v>
+        <v>8.602255533996287</v>
       </c>
       <c r="P3" t="n">
-        <v>334.3127704211503</v>
+        <v>334.3468751099128</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14599,28 +14769,28 @@
         <v>0.0901</v>
       </c>
       <c r="I4" t="n">
-        <v>0.44060916889905</v>
+        <v>0.4418605234375379</v>
       </c>
       <c r="J4" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K4" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1010841994111992</v>
+        <v>0.1039671745838231</v>
       </c>
       <c r="M4" t="n">
-        <v>6.762868290957003</v>
+        <v>6.744404536506433</v>
       </c>
       <c r="N4" t="n">
-        <v>89.23412618274735</v>
+        <v>88.43029738629311</v>
       </c>
       <c r="O4" t="n">
-        <v>9.446381644987003</v>
+        <v>9.403738479258827</v>
       </c>
       <c r="P4" t="n">
-        <v>340.9164042242514</v>
+        <v>340.9037876947366</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14677,28 +14847,28 @@
         <v>0.1191</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3938881048021545</v>
+        <v>0.3967095424861596</v>
       </c>
       <c r="J5" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K5" t="n">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09161263711669676</v>
+        <v>0.09510886699274357</v>
       </c>
       <c r="M5" t="n">
-        <v>6.505837665670095</v>
+        <v>6.463426541632303</v>
       </c>
       <c r="N5" t="n">
-        <v>78.57946456125833</v>
+        <v>77.75339647462741</v>
       </c>
       <c r="O5" t="n">
-        <v>8.864505883649597</v>
+        <v>8.817788638577555</v>
       </c>
       <c r="P5" t="n">
-        <v>335.3274984771624</v>
+        <v>335.2988731808225</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14755,28 +14925,28 @@
         <v>0.09909999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5246727864292695</v>
+        <v>0.5197590771335002</v>
       </c>
       <c r="J6" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K6" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1738846931035367</v>
+        <v>0.1752370679362805</v>
       </c>
       <c r="M6" t="n">
-        <v>6.121463148974157</v>
+        <v>6.07384093845145</v>
       </c>
       <c r="N6" t="n">
-        <v>66.38622029013555</v>
+        <v>65.61187527840283</v>
       </c>
       <c r="O6" t="n">
-        <v>8.147773946921671</v>
+        <v>8.100115757098958</v>
       </c>
       <c r="P6" t="n">
-        <v>336.736017673761</v>
+        <v>336.7861255072684</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14833,28 +15003,28 @@
         <v>0.0885</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5978262571163501</v>
+        <v>0.6066836229618728</v>
       </c>
       <c r="J7" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K7" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2079950608332107</v>
+        <v>0.2174582486678933</v>
       </c>
       <c r="M7" t="n">
-        <v>6.579902321875211</v>
+        <v>6.52726776899571</v>
       </c>
       <c r="N7" t="n">
-        <v>69.54357598442992</v>
+        <v>68.80986303120878</v>
       </c>
       <c r="O7" t="n">
-        <v>8.339279104600704</v>
+        <v>8.295171067025006</v>
       </c>
       <c r="P7" t="n">
-        <v>336.3170869734584</v>
+        <v>336.2270233242208</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14911,28 +15081,28 @@
         <v>0.0464</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4933529636054136</v>
+        <v>0.4954400547735697</v>
       </c>
       <c r="J8" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K8" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05290817810507553</v>
+        <v>0.05440491654701396</v>
       </c>
       <c r="M8" t="n">
-        <v>11.8558885101901</v>
+        <v>11.77941240743319</v>
       </c>
       <c r="N8" t="n">
-        <v>224.467139579819</v>
+        <v>222.440193735031</v>
       </c>
       <c r="O8" t="n">
-        <v>14.98222745721807</v>
+        <v>14.91442904488908</v>
       </c>
       <c r="P8" t="n">
-        <v>336.8771957454513</v>
+        <v>336.8559042436332</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14970,7 +15140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I329"/>
+  <dimension ref="A1:I333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29701,6 +29871,190 @@
         </is>
       </c>
     </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:48+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>-35.454340804414535,174.42807358633877</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>-35.455101299729634,174.42812152311956</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>-35.455686313836026,174.42868146083455</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>-35.456269153140084,174.42925400911838</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>-35.456744290740936,174.42996926852226</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>-35.45702075029101,174.43081330051197</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>-35.45720632254292,174.4317041098761</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>-35.45437576896173,174.42786306082886</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>-35.455126705056365,174.42804094525832</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>-35.45575990279845,174.42857019946248</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>-35.4563205202245,174.42920031791863</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>-35.45673716293906,174.429974686523</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>-35.45700766755285,174.4308180922253</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>-35.457117194927626,174.43171910899096</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>-35.45435488421043,174.42798881057496</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-35.45510386511589,174.4281133865155</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-35.45570331553038,174.4286557554914</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>-35.45625422748251,174.4292696100735</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>-35.4567488583179,174.42996579660485</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>-35.456983272347536,174.43082702726443</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-35.45437052152752,174.4278946563782</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-35.455115177814584,174.4280775061414</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-35.45575256374194,174.42858129561927</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>-35.45629122353512,174.42923094015458</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>-35.45671241976829,174.42999349434874</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>-35.45701988674395,174.4308136167967</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>-35.4571446119398,174.43171449503797</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0078/nzd0078.xlsx
+++ b/data/nzd0078/nzd0078.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21244,7 +21244,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>-35.45649488431001,174.4290180640066</t>
+          <t>-35.45649488431002,174.4290180640066</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">

--- a/data/nzd0078/nzd0078.xlsx
+++ b/data/nzd0078/nzd0078.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I333"/>
+  <dimension ref="A1:I336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11062,6 +11062,105 @@
         <v>351.88</v>
       </c>
       <c r="I333" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>352.9023809523809</v>
+      </c>
+      <c r="C334" t="n">
+        <v>351.772380952381</v>
+      </c>
+      <c r="D334" t="n">
+        <v>354.595</v>
+      </c>
+      <c r="E334" t="n">
+        <v>348.5423809523809</v>
+      </c>
+      <c r="F334" t="n">
+        <v>344.8044444444445</v>
+      </c>
+      <c r="G334" t="n">
+        <v>350.935</v>
+      </c>
+      <c r="H334" t="n">
+        <v>333.47</v>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>348.3161904761905</v>
+      </c>
+      <c r="C335" t="n">
+        <v>353.2961904761905</v>
+      </c>
+      <c r="D335" t="n">
+        <v>354.355</v>
+      </c>
+      <c r="E335" t="n">
+        <v>351.3261904761905</v>
+      </c>
+      <c r="F335" t="n">
+        <v>355.3422222222222</v>
+      </c>
+      <c r="G335" t="n">
+        <v>358.355</v>
+      </c>
+      <c r="H335" t="n">
+        <v>354.52</v>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>357.9957142857143</v>
+      </c>
+      <c r="C336" t="n">
+        <v>353.1157142857143</v>
+      </c>
+      <c r="D336" t="n">
+        <v>359.965</v>
+      </c>
+      <c r="E336" t="n">
+        <v>349.3557142857143</v>
+      </c>
+      <c r="F336" t="n">
+        <v>353.32</v>
+      </c>
+      <c r="G336" t="n">
+        <v>356.045</v>
+      </c>
+      <c r="H336" t="n">
+        <v>355.4</v>
+      </c>
+      <c r="I336" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11078,7 +11177,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B336"/>
+  <dimension ref="A1:B339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14446,6 +14545,36 @@
       </c>
       <c r="B336" t="n">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>-0.95</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -14613,28 +14742,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.4504536081522188</v>
+        <v>0.4635227009638127</v>
       </c>
       <c r="J2" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K2" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1050041857705142</v>
+        <v>0.111888085110589</v>
       </c>
       <c r="M2" t="n">
-        <v>7.24449860814081</v>
+        <v>7.247528386948839</v>
       </c>
       <c r="N2" t="n">
-        <v>90.93361348671665</v>
+        <v>90.64359715654156</v>
       </c>
       <c r="O2" t="n">
-        <v>9.535911780564911</v>
+        <v>9.520693102738978</v>
       </c>
       <c r="P2" t="n">
-        <v>334.5925742211801</v>
+        <v>334.4582036464546</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14691,28 +14820,28 @@
         <v>0.1225</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4817884750538484</v>
+        <v>0.4931430665413902</v>
       </c>
       <c r="J3" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K3" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L3" t="n">
-        <v>0.141581804660556</v>
+        <v>0.1493839715690876</v>
       </c>
       <c r="M3" t="n">
-        <v>6.586009805019573</v>
+        <v>6.576859821658031</v>
       </c>
       <c r="N3" t="n">
-        <v>73.99880027216975</v>
+        <v>73.6191378877091</v>
       </c>
       <c r="O3" t="n">
-        <v>8.602255533996287</v>
+        <v>8.580159549082353</v>
       </c>
       <c r="P3" t="n">
-        <v>334.3468751099128</v>
+        <v>334.230579529242</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14769,28 +14898,28 @@
         <v>0.0901</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4418605234375379</v>
+        <v>0.4500228636438525</v>
       </c>
       <c r="J4" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K4" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1039671745838231</v>
+        <v>0.109331777024106</v>
       </c>
       <c r="M4" t="n">
-        <v>6.744404536506433</v>
+        <v>6.715421828334171</v>
       </c>
       <c r="N4" t="n">
-        <v>88.43029738629311</v>
+        <v>87.74976911916926</v>
       </c>
       <c r="O4" t="n">
-        <v>9.403738479258827</v>
+        <v>9.367484674082432</v>
       </c>
       <c r="P4" t="n">
-        <v>340.9037876947366</v>
+        <v>340.8203658765872</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14847,28 +14976,28 @@
         <v>0.1191</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3967095424861596</v>
+        <v>0.4049087301943139</v>
       </c>
       <c r="J5" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K5" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09510886699274357</v>
+        <v>0.1004147486823597</v>
       </c>
       <c r="M5" t="n">
-        <v>6.463426541632303</v>
+        <v>6.439769428937249</v>
       </c>
       <c r="N5" t="n">
-        <v>77.75339647462741</v>
+        <v>77.18588469603628</v>
       </c>
       <c r="O5" t="n">
-        <v>8.817788638577555</v>
+        <v>8.785549766294439</v>
       </c>
       <c r="P5" t="n">
-        <v>335.2988731808225</v>
+        <v>335.2152185382438</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14925,28 +15054,28 @@
         <v>0.09909999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5197590771335002</v>
+        <v>0.5216133256062141</v>
       </c>
       <c r="J6" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K6" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1752370679362805</v>
+        <v>0.1789561711646215</v>
       </c>
       <c r="M6" t="n">
-        <v>6.07384093845145</v>
+        <v>6.058785946140597</v>
       </c>
       <c r="N6" t="n">
-        <v>65.61187527840283</v>
+        <v>65.18879156087459</v>
       </c>
       <c r="O6" t="n">
-        <v>8.100115757098958</v>
+        <v>8.073957614508178</v>
       </c>
       <c r="P6" t="n">
-        <v>336.7861255072684</v>
+        <v>336.7670279199917</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15003,28 +15132,28 @@
         <v>0.0885</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6066836229618728</v>
+        <v>0.6130312587265504</v>
       </c>
       <c r="J7" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K7" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2174582486678933</v>
+        <v>0.224296163294013</v>
       </c>
       <c r="M7" t="n">
-        <v>6.52726776899571</v>
+        <v>6.494430605760838</v>
       </c>
       <c r="N7" t="n">
-        <v>68.80986303120878</v>
+        <v>68.33095726193453</v>
       </c>
       <c r="O7" t="n">
-        <v>8.295171067025006</v>
+        <v>8.266254125172692</v>
       </c>
       <c r="P7" t="n">
-        <v>336.2270233242208</v>
+        <v>336.1620834654901</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15081,28 +15210,28 @@
         <v>0.0464</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4954400547735697</v>
+        <v>0.4917979197383036</v>
       </c>
       <c r="J8" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K8" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05440491654701396</v>
+        <v>0.05451072231318921</v>
       </c>
       <c r="M8" t="n">
-        <v>11.77941240743319</v>
+        <v>11.75185882689587</v>
       </c>
       <c r="N8" t="n">
-        <v>222.440193735031</v>
+        <v>221.3053016788189</v>
       </c>
       <c r="O8" t="n">
-        <v>14.91442904488908</v>
+        <v>14.87633361009422</v>
       </c>
       <c r="P8" t="n">
-        <v>336.8559042436332</v>
+        <v>336.8929847344058</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -15140,7 +15269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I333"/>
+  <dimension ref="A1:I336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30055,6 +30184,147 @@
         </is>
       </c>
     </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>-35.45435488677225,174.42798879514996</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>-35.45509145493911,174.4281527476999</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-35.45571482000723,174.42863836153634</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>-35.45626992633803,174.4292532009376</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>-35.456763198977946,174.4299548959454</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>-35.457042857095686,174.43080520362</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>-35.4573090247019,174.43168682629008</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>-35.4543631110605,174.42793927576483</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>-35.45508651556176,174.42816841383947</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>-35.45571618014227,174.42863630510783</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>-35.456250854120526,174.42927313605907</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>-35.45668253062671,174.4300162137216</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>-35.456978781902606,174.43082867194363</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>-35.457121035095476,174.43171846273714</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-35.45434575301522,174.42804379039674</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-35.45508710056938,174.42816655838118</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-35.455684386977005,174.42868437410607</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-35.4562643540928,174.42925902529495</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>-35.456698011059096,174.43000444671782</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>-35.45699872984053,174.4308213657712</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>-35.45711317614732,174.43171978530307</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0078/nzd0078.xlsx
+++ b/data/nzd0078/nzd0078.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I336"/>
+  <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11161,6 +11161,101 @@
         <v>355.4</v>
       </c>
       <c r="I336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>344.2166666666667</v>
+      </c>
+      <c r="C337" t="n">
+        <v>346.2666666666667</v>
+      </c>
+      <c r="D337" t="n">
+        <v>353.02</v>
+      </c>
+      <c r="E337" t="n">
+        <v>343.2166666666667</v>
+      </c>
+      <c r="F337" t="n">
+        <v>348.2544444444445</v>
+      </c>
+      <c r="G337" t="n">
+        <v>350.68</v>
+      </c>
+      <c r="H337" t="n">
+        <v>344.48</v>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>340.737619047619</v>
+      </c>
+      <c r="C338" t="n">
+        <v>339.817619047619</v>
+      </c>
+      <c r="D338" t="n">
+        <v>349.735</v>
+      </c>
+      <c r="E338" t="n">
+        <v>343.977619047619</v>
+      </c>
+      <c r="F338" t="n">
+        <v>349.2222222222222</v>
+      </c>
+      <c r="G338" t="n">
+        <v>353.525</v>
+      </c>
+      <c r="H338" t="n">
+        <v>344.5</v>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>347.107619047619</v>
+      </c>
+      <c r="C339" t="n">
+        <v>341.637619047619</v>
+      </c>
+      <c r="D339" t="inlineStr"/>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="n">
+        <v>342.2822222222222</v>
+      </c>
+      <c r="G339" t="n">
+        <v>344.7</v>
+      </c>
+      <c r="H339" t="n">
+        <v>336.31</v>
+      </c>
+      <c r="I339" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11177,7 +11272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B339"/>
+  <dimension ref="A1:B342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14575,6 +14670,36 @@
       </c>
       <c r="B339" t="n">
         <v>0.45</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>-0.52</v>
       </c>
     </row>
   </sheetData>
@@ -14742,28 +14867,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.4635227009638127</v>
+        <v>0.4589042705061085</v>
       </c>
       <c r="J2" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K2" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L2" t="n">
-        <v>0.111888085110589</v>
+        <v>0.1117620260128136</v>
       </c>
       <c r="M2" t="n">
-        <v>7.247528386948839</v>
+        <v>7.203071501221695</v>
       </c>
       <c r="N2" t="n">
-        <v>90.64359715654156</v>
+        <v>89.89868878723959</v>
       </c>
       <c r="O2" t="n">
-        <v>9.520693102738978</v>
+        <v>9.481491907249596</v>
       </c>
       <c r="P2" t="n">
-        <v>334.4582036464546</v>
+        <v>334.5058699146861</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14820,28 +14945,28 @@
         <v>0.1225</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4931430665413902</v>
+        <v>0.4847713640853225</v>
       </c>
       <c r="J3" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K3" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1493839715690876</v>
+        <v>0.1471814451308597</v>
       </c>
       <c r="M3" t="n">
-        <v>6.576859821658031</v>
+        <v>6.557431608318111</v>
       </c>
       <c r="N3" t="n">
-        <v>73.6191378877091</v>
+        <v>73.17205417945526</v>
       </c>
       <c r="O3" t="n">
-        <v>8.580159549082353</v>
+        <v>8.554066528818634</v>
       </c>
       <c r="P3" t="n">
-        <v>334.230579529242</v>
+        <v>334.3167477665737</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14898,28 +15023,28 @@
         <v>0.0901</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4500228636438525</v>
+        <v>0.4485128184759751</v>
       </c>
       <c r="J4" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K4" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L4" t="n">
-        <v>0.109331777024106</v>
+        <v>0.1100691705917547</v>
       </c>
       <c r="M4" t="n">
-        <v>6.715421828334171</v>
+        <v>6.681118701273085</v>
       </c>
       <c r="N4" t="n">
-        <v>87.74976911916926</v>
+        <v>87.18155299859599</v>
       </c>
       <c r="O4" t="n">
-        <v>9.367484674082432</v>
+        <v>9.337106243295938</v>
       </c>
       <c r="P4" t="n">
-        <v>340.8203658765872</v>
+        <v>340.8358630019354</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14976,28 +15101,28 @@
         <v>0.1191</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4049087301943139</v>
+        <v>0.4021706975939423</v>
       </c>
       <c r="J5" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K5" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1004147486823597</v>
+        <v>0.1004296743046638</v>
       </c>
       <c r="M5" t="n">
-        <v>6.439769428937249</v>
+        <v>6.412770179268187</v>
       </c>
       <c r="N5" t="n">
-        <v>77.18588469603628</v>
+        <v>76.7262093569511</v>
       </c>
       <c r="O5" t="n">
-        <v>8.785549766294439</v>
+        <v>8.759349825012762</v>
       </c>
       <c r="P5" t="n">
-        <v>335.2152185382438</v>
+        <v>335.243263102615</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15054,28 +15179,28 @@
         <v>0.09909999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5216133256062141</v>
+        <v>0.514419516045173</v>
       </c>
       <c r="J6" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K6" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1789561711646215</v>
+        <v>0.1774895111111945</v>
       </c>
       <c r="M6" t="n">
-        <v>6.058785946140597</v>
+        <v>6.036410743517107</v>
       </c>
       <c r="N6" t="n">
-        <v>65.18879156087459</v>
+        <v>64.78582415532718</v>
       </c>
       <c r="O6" t="n">
-        <v>8.073957614508178</v>
+        <v>8.048964166607227</v>
       </c>
       <c r="P6" t="n">
-        <v>336.7670279199917</v>
+        <v>336.8412195467441</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15132,28 +15257,28 @@
         <v>0.0885</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6130312587265504</v>
+        <v>0.6082956648051391</v>
       </c>
       <c r="J7" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K7" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L7" t="n">
-        <v>0.224296163294013</v>
+        <v>0.224812890282665</v>
       </c>
       <c r="M7" t="n">
-        <v>6.494430605760838</v>
+        <v>6.469367511130065</v>
       </c>
       <c r="N7" t="n">
-        <v>68.33095726193453</v>
+        <v>67.85992297849813</v>
       </c>
       <c r="O7" t="n">
-        <v>8.266254125172692</v>
+        <v>8.237713455716831</v>
       </c>
       <c r="P7" t="n">
-        <v>336.1620834654901</v>
+        <v>336.210760128311</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15210,28 +15335,28 @@
         <v>0.0464</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4917979197383036</v>
+        <v>0.4765508936206989</v>
       </c>
       <c r="J8" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K8" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05451072231318921</v>
+        <v>0.05222383653684082</v>
       </c>
       <c r="M8" t="n">
-        <v>11.75185882689587</v>
+        <v>11.71370651112824</v>
       </c>
       <c r="N8" t="n">
-        <v>221.3053016788189</v>
+        <v>219.8974632281726</v>
       </c>
       <c r="O8" t="n">
-        <v>14.87633361009422</v>
+        <v>14.82894005747453</v>
       </c>
       <c r="P8" t="n">
-        <v>336.8929847344058</v>
+        <v>337.0498047800357</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -15269,7 +15394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I336"/>
+  <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30325,6 +30450,139 @@
         </is>
       </c>
     </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>-35.45437046260591,174.42789501115325</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>-35.45510930151026,174.42809614396288</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>-35.455723745892776,174.42862486622298</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>-35.45630641344536,174.4292150629713</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>-35.45673678868693,174.42997497100032</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>-35.457045059140654,174.4308043970934</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>-35.457210698548025,174.43170337344586</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>-35.45437670145854,174.42785744612706</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>-35.45513020582877,174.42802984187068</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>-35.45574236273512,174.4285967188454</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>-35.45630120007003,174.4292205122286</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>-35.456729380195725,174.42998060235803</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>-35.4570204912269,174.4308133953974</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>-35.457210519935565,174.43170340350423</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>-35.454365278354814,174.42792622621477</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>-35.455124306378394,174.42804855313443</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr"/>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>-35.456782506982584,174.429940219488</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>-35.45709669925256,174.43078548324235</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>-35.45728366173422,174.43169109458805</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0078/nzd0078.xlsx
+++ b/data/nzd0078/nzd0078.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I339"/>
+  <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11256,6 +11256,37 @@
         <v>336.31</v>
       </c>
       <c r="I339" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>356.3728571428572</v>
+      </c>
+      <c r="C340" t="n">
+        <v>356.3428571428572</v>
+      </c>
+      <c r="D340" t="n">
+        <v>356.21</v>
+      </c>
+      <c r="E340" t="n">
+        <v>346.3128571428572</v>
+      </c>
+      <c r="F340" t="n">
+        <v>351.18</v>
+      </c>
+      <c r="G340" t="n">
+        <v>350.21</v>
+      </c>
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11272,7 +11303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B342"/>
+  <dimension ref="A1:B343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14700,6 +14731,16 @@
       </c>
       <c r="B342" t="n">
         <v>-0.52</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>-0.72</v>
       </c>
     </row>
   </sheetData>
@@ -14867,28 +14908,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.4589042705061085</v>
+        <v>0.4650909052666777</v>
       </c>
       <c r="J2" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K2" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1117620260128136</v>
+        <v>0.1147762396322811</v>
       </c>
       <c r="M2" t="n">
-        <v>7.203071501221695</v>
+        <v>7.21489749797809</v>
       </c>
       <c r="N2" t="n">
-        <v>89.89868878723959</v>
+        <v>89.92176119482359</v>
       </c>
       <c r="O2" t="n">
-        <v>9.481491907249596</v>
+        <v>9.482708536848719</v>
       </c>
       <c r="P2" t="n">
-        <v>334.5058699146861</v>
+        <v>334.441667969056</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14945,28 +14986,28 @@
         <v>0.1225</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4847713640853225</v>
+        <v>0.4906504016480195</v>
       </c>
       <c r="J3" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K3" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1471814451308597</v>
+        <v>0.1506092768396488</v>
       </c>
       <c r="M3" t="n">
-        <v>6.557431608318111</v>
+        <v>6.565581924972292</v>
       </c>
       <c r="N3" t="n">
-        <v>73.17205417945526</v>
+        <v>73.21682696925234</v>
       </c>
       <c r="O3" t="n">
-        <v>8.554066528818634</v>
+        <v>8.556683175696781</v>
       </c>
       <c r="P3" t="n">
-        <v>334.3167477665737</v>
+        <v>334.2559522790128</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15023,28 +15064,28 @@
         <v>0.0901</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4485128184759751</v>
+        <v>0.4509978753063975</v>
       </c>
       <c r="J4" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K4" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1100691705917547</v>
+        <v>0.1118276714550863</v>
       </c>
       <c r="M4" t="n">
-        <v>6.681118701273085</v>
+        <v>6.670777337194493</v>
       </c>
       <c r="N4" t="n">
-        <v>87.18155299859599</v>
+        <v>86.932383043649</v>
       </c>
       <c r="O4" t="n">
-        <v>9.337106243295938</v>
+        <v>9.323753699216265</v>
       </c>
       <c r="P4" t="n">
-        <v>340.8358630019354</v>
+        <v>340.8102389032159</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15101,28 +15142,28 @@
         <v>0.1191</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4021706975939423</v>
+        <v>0.4025498066875855</v>
       </c>
       <c r="J5" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K5" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1004296743046638</v>
+        <v>0.101240314810933</v>
       </c>
       <c r="M5" t="n">
-        <v>6.412770179268187</v>
+        <v>6.394325321312846</v>
       </c>
       <c r="N5" t="n">
-        <v>76.7262093569511</v>
+        <v>76.4852477752804</v>
       </c>
       <c r="O5" t="n">
-        <v>8.759349825012762</v>
+        <v>8.745584473051553</v>
       </c>
       <c r="P5" t="n">
-        <v>335.243263102615</v>
+        <v>335.2393591761132</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15179,28 +15220,28 @@
         <v>0.09909999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.514419516045173</v>
+        <v>0.5150189838932785</v>
       </c>
       <c r="J6" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K6" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1774895111111945</v>
+        <v>0.1788490769660301</v>
       </c>
       <c r="M6" t="n">
-        <v>6.036410743517107</v>
+        <v>6.020232326182434</v>
       </c>
       <c r="N6" t="n">
-        <v>64.78582415532718</v>
+        <v>64.58351958295671</v>
       </c>
       <c r="O6" t="n">
-        <v>8.048964166607227</v>
+        <v>8.036387222064198</v>
       </c>
       <c r="P6" t="n">
-        <v>336.8412195467441</v>
+        <v>336.8350104332781</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15257,28 +15298,28 @@
         <v>0.0885</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6082956648051391</v>
+        <v>0.6070964224945918</v>
       </c>
       <c r="J7" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K7" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L7" t="n">
-        <v>0.224812890282665</v>
+        <v>0.2253220378694574</v>
       </c>
       <c r="M7" t="n">
-        <v>6.469367511130065</v>
+        <v>6.455821888130675</v>
       </c>
       <c r="N7" t="n">
-        <v>67.85992297849813</v>
+        <v>67.65400680573424</v>
       </c>
       <c r="O7" t="n">
-        <v>8.237713455716831</v>
+        <v>8.225205578326552</v>
       </c>
       <c r="P7" t="n">
-        <v>336.210760128311</v>
+        <v>336.2231371647382</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15338,7 +15379,7 @@
         <v>0.4765508936206989</v>
       </c>
       <c r="J8" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K8" t="n">
         <v>311</v>
@@ -15394,7 +15435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I339"/>
+  <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30583,6 +30624,49 @@
         </is>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>-35.45434866325014,174.42802626760454</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>-35.455076639888226,174.42819973632135</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>-35.45570566743101,174.42865219958475</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>-35.45628520107445,174.42923723510145</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>-35.45671439309792,174.42999199437818</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>-35.45704911781176,174.43080291055415</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0078/nzd0078.xlsx
+++ b/data/nzd0078/nzd0078.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I340"/>
+  <dimension ref="A1:I341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11287,6 +11287,39 @@
       </c>
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>353.7833333333333</v>
+      </c>
+      <c r="C341" t="n">
+        <v>345.0433333333333</v>
+      </c>
+      <c r="D341" t="n">
+        <v>349.29</v>
+      </c>
+      <c r="E341" t="n">
+        <v>340.9733333333333</v>
+      </c>
+      <c r="F341" t="n">
+        <v>338.7322222222222</v>
+      </c>
+      <c r="G341" t="n">
+        <v>342.57</v>
+      </c>
+      <c r="H341" t="n">
+        <v>327.04</v>
+      </c>
+      <c r="I341" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11303,7 +11336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B343"/>
+  <dimension ref="A1:B344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14741,6 +14774,16 @@
       </c>
       <c r="B343" t="n">
         <v>-0.72</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -15435,7 +15478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I340"/>
+  <dimension ref="A1:I341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30667,6 +30710,53 @@
         </is>
       </c>
     </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>-35.45435330698246,174.4279983072308</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>-35.45511326689691,174.42808356698302</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>-35.45574488465087,174.42859290588154</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>-35.45632178278766,174.42919899822934</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>-35.45680968278365,174.42991956252413</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>-35.457115092803434,174.4307787463634</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>-35.457366448603324,174.4316771624939</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0078/nzd0078.xlsx
+++ b/data/nzd0078/nzd0078.xlsx
@@ -14951,28 +14951,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.4650909052666777</v>
+        <v>0.4695614820652803</v>
       </c>
       <c r="J2" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K2" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1147762396322811</v>
+        <v>0.1172328470818047</v>
       </c>
       <c r="M2" t="n">
-        <v>7.21489749797809</v>
+        <v>7.2170824213514</v>
       </c>
       <c r="N2" t="n">
-        <v>89.92176119482359</v>
+        <v>89.79960394263829</v>
       </c>
       <c r="O2" t="n">
-        <v>9.482708536848719</v>
+        <v>9.476265295074757</v>
       </c>
       <c r="P2" t="n">
-        <v>334.441667969056</v>
+        <v>334.3951809621378</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15029,28 +15029,28 @@
         <v>0.1225</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4906504016480195</v>
+        <v>0.48939144528466</v>
       </c>
       <c r="J3" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K3" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1506092768396488</v>
+        <v>0.1507854717054196</v>
       </c>
       <c r="M3" t="n">
-        <v>6.565581924972292</v>
+        <v>6.551360949864841</v>
       </c>
       <c r="N3" t="n">
-        <v>73.21682696925234</v>
+        <v>72.99863753945635</v>
       </c>
       <c r="O3" t="n">
-        <v>8.556683175696781</v>
+        <v>8.543924012972983</v>
       </c>
       <c r="P3" t="n">
-        <v>334.2559522790128</v>
+        <v>334.268997247911</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15107,28 +15107,28 @@
         <v>0.0901</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4509978753063975</v>
+        <v>0.4487897505849279</v>
       </c>
       <c r="J4" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K4" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1118276714550863</v>
+        <v>0.1115323011971093</v>
       </c>
       <c r="M4" t="n">
-        <v>6.670777337194493</v>
+        <v>6.659481407962009</v>
       </c>
       <c r="N4" t="n">
-        <v>86.932383043649</v>
+        <v>86.67584961870283</v>
       </c>
       <c r="O4" t="n">
-        <v>9.323753699216265</v>
+        <v>9.30998655308926</v>
       </c>
       <c r="P4" t="n">
-        <v>340.8102389032159</v>
+        <v>340.8330523821204</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15185,28 +15185,28 @@
         <v>0.1191</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4025498066875855</v>
+        <v>0.3994857796181299</v>
       </c>
       <c r="J5" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K5" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L5" t="n">
-        <v>0.101240314810933</v>
+        <v>0.1004081521297079</v>
       </c>
       <c r="M5" t="n">
-        <v>6.394325321312846</v>
+        <v>6.389626502663838</v>
       </c>
       <c r="N5" t="n">
-        <v>76.4852477752804</v>
+        <v>76.31572722657576</v>
       </c>
       <c r="O5" t="n">
-        <v>8.745584473051553</v>
+        <v>8.735887317644142</v>
       </c>
       <c r="P5" t="n">
-        <v>335.2393591761132</v>
+        <v>335.2709714483804</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15263,28 +15263,28 @@
         <v>0.09909999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5150189838932785</v>
+        <v>0.5076258583167162</v>
       </c>
       <c r="J6" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K6" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1788490769660301</v>
+        <v>0.1747153682843128</v>
       </c>
       <c r="M6" t="n">
-        <v>6.020232326182434</v>
+        <v>6.038067834427054</v>
       </c>
       <c r="N6" t="n">
-        <v>64.58351958295671</v>
+        <v>64.79630274423894</v>
       </c>
       <c r="O6" t="n">
-        <v>8.036387222064198</v>
+        <v>8.049615068078657</v>
       </c>
       <c r="P6" t="n">
-        <v>336.8350104332781</v>
+        <v>336.9117331156626</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15341,28 +15341,28 @@
         <v>0.0885</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6070964224945918</v>
+        <v>0.6009921000088303</v>
       </c>
       <c r="J7" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K7" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2253220378694574</v>
+        <v>0.2222933656820379</v>
       </c>
       <c r="M7" t="n">
-        <v>6.455821888130675</v>
+        <v>6.471273827594406</v>
       </c>
       <c r="N7" t="n">
-        <v>67.65400680573424</v>
+        <v>67.72325517889526</v>
       </c>
       <c r="O7" t="n">
-        <v>8.225205578326552</v>
+        <v>8.229414024029612</v>
       </c>
       <c r="P7" t="n">
-        <v>336.2231371647382</v>
+        <v>336.2862600299778</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15419,28 +15419,28 @@
         <v>0.0464</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4765508936206989</v>
+        <v>0.4620482303926779</v>
       </c>
       <c r="J8" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K8" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05222383653684082</v>
+        <v>0.04923604157628192</v>
       </c>
       <c r="M8" t="n">
-        <v>11.71370651112824</v>
+        <v>11.74747362319658</v>
       </c>
       <c r="N8" t="n">
-        <v>219.8974632281726</v>
+        <v>220.7918529936572</v>
       </c>
       <c r="O8" t="n">
-        <v>14.82894005747453</v>
+        <v>14.85906635672838</v>
       </c>
       <c r="P8" t="n">
-        <v>337.0498047800357</v>
+        <v>337.1999437245598</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">

--- a/data/nzd0078/nzd0078.xlsx
+++ b/data/nzd0078/nzd0078.xlsx
@@ -14947,9 +14947,15 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0881</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.123</v>
+      </c>
       <c r="I2" t="n">
         <v>0.469516592402457</v>
       </c>
@@ -15023,10 +15029,10 @@
         <v>0.105</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09429999999999999</v>
+        <v>0.0929</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1225</v>
+        <v>0.1221</v>
       </c>
       <c r="I3" t="n">
         <v>0.4893427383071807</v>
@@ -15098,13 +15104,13 @@
         <v>0.3318706566319488</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.074</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0901</v>
+        <v>0.0941</v>
       </c>
       <c r="I4" t="n">
         <v>0.4488038579474615</v>
@@ -15176,13 +15182,13 @@
         <v>0.4996096879816429</v>
       </c>
       <c r="F5" t="n">
-        <v>0.105</v>
+        <v>0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09470000000000001</v>
+        <v>0.0872</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1191</v>
+        <v>0.1183</v>
       </c>
       <c r="I5" t="n">
         <v>0.3994397856859403</v>
@@ -15254,13 +15260,13 @@
         <v>0.6678616377420702</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07870000000000001</v>
+        <v>0.109</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09909999999999999</v>
+        <v>0.1335</v>
       </c>
       <c r="I6" t="n">
         <v>0.5076355740595667</v>
@@ -15332,13 +15338,13 @@
         <v>0.8316598964278055</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07240000000000001</v>
+        <v>0.0919</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0885</v>
+        <v>0.1118</v>
       </c>
       <c r="I7" t="n">
         <v>0.6010259431682022</v>
@@ -15410,13 +15416,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04</v>
+        <v>0.065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0373</v>
+        <v>0.0548</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0464</v>
+        <v>0.0866</v>
       </c>
       <c r="I8" t="n">
         <v>0.4620482303926779</v>

--- a/data/nzd0078/nzd0078.xlsx
+++ b/data/nzd0078/nzd0078.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I342"/>
+  <dimension ref="A1:I343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>338.96</v>
+        <v>338.97</v>
       </c>
       <c r="C2" t="n">
         <v>343.83</v>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>340.65</v>
+        <v>340.88</v>
       </c>
       <c r="C3" t="n">
         <v>343.83</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>338.95</v>
+        <v>339.16</v>
       </c>
       <c r="C4" t="n">
         <v>341.79</v>
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>337.8</v>
+        <v>337.9</v>
       </c>
       <c r="C5" t="n">
         <v>339.09</v>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>334.89</v>
+        <v>334.81</v>
       </c>
       <c r="C6" t="n">
         <v>335.58</v>
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>333.01</v>
+        <v>332.88</v>
       </c>
       <c r="C7" t="n">
         <v>336.75</v>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>332.59</v>
+        <v>332.42</v>
       </c>
       <c r="C8" t="n">
         <v>337.2</v>
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>332.11</v>
+        <v>332</v>
       </c>
       <c r="C9" t="n">
         <v>336.06</v>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>333.35</v>
+        <v>333.34</v>
       </c>
       <c r="C10" t="n">
         <v>336.55</v>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>333.52</v>
+        <v>333.48</v>
       </c>
       <c r="C11" t="n">
         <v>335.19</v>
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>345.5</v>
+        <v>345.62</v>
       </c>
       <c r="C12" t="n">
         <v>334.85</v>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>341.24</v>
+        <v>341.34</v>
       </c>
       <c r="C13" t="n">
         <v>334.82</v>
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>339.92</v>
+        <v>339.91</v>
       </c>
       <c r="C14" t="n">
         <v>335.86</v>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>325.36</v>
+        <v>325.39</v>
       </c>
       <c r="C16" t="n">
         <v>325.35</v>
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>329.45</v>
+        <v>329.44</v>
       </c>
       <c r="C17" t="n">
         <v>327.7</v>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>331.76</v>
+        <v>331.74</v>
       </c>
       <c r="C18" t="n">
         <v>330.58</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>331.82</v>
+        <v>331.87</v>
       </c>
       <c r="C19" t="n">
         <v>329.23</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>330.74</v>
+        <v>330.84</v>
       </c>
       <c r="C20" t="n">
         <v>328.77</v>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>333.1</v>
+        <v>333.19</v>
       </c>
       <c r="C21" t="n">
         <v>331.43</v>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>336.67</v>
+        <v>336.74</v>
       </c>
       <c r="C22" t="n">
         <v>334.62</v>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>337.5</v>
+        <v>337.57</v>
       </c>
       <c r="C23" t="n">
         <v>335.89</v>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>335.93</v>
+        <v>335.94</v>
       </c>
       <c r="C24" t="n">
         <v>335.14</v>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>340.34</v>
+        <v>340.09</v>
       </c>
       <c r="C25" t="n">
         <v>339.25</v>
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>340.37</v>
+        <v>340.31</v>
       </c>
       <c r="C26" t="n">
         <v>336.77</v>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>340.11</v>
+        <v>340.04</v>
       </c>
       <c r="C27" t="n">
         <v>338.63</v>
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>338.98</v>
+        <v>339.06</v>
       </c>
       <c r="C28" t="n">
         <v>339.62</v>
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>342.24</v>
+        <v>342.39</v>
       </c>
       <c r="C29" t="n">
         <v>342.25</v>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>341.75</v>
+        <v>341.92</v>
       </c>
       <c r="C30" t="n">
         <v>342.33</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>339.35</v>
+        <v>339.57</v>
       </c>
       <c r="C31" t="n">
         <v>342.33</v>
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>338.33</v>
+        <v>338.47</v>
       </c>
       <c r="C32" t="n">
         <v>340.71</v>
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>339.86</v>
+        <v>340.12</v>
       </c>
       <c r="C33" t="n">
         <v>343.53</v>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>335.36</v>
+        <v>335.56</v>
       </c>
       <c r="C34" t="n">
         <v>340.17</v>
@@ -1579,7 +1579,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>343.79</v>
+        <v>343.7</v>
       </c>
       <c r="C35" t="n">
         <v>343.67</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>348.61</v>
+        <v>348.72</v>
       </c>
       <c r="C36" t="n">
         <v>346.24</v>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>346.61</v>
+        <v>346.78</v>
       </c>
       <c r="C37" t="n">
         <v>344.59</v>
@@ -1678,7 +1678,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>347.27</v>
+        <v>347.37</v>
       </c>
       <c r="C38" t="n">
         <v>344.92</v>
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>346.24</v>
+        <v>346.32</v>
       </c>
       <c r="C39" t="n">
         <v>344.91</v>
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>348.91</v>
+        <v>348.97</v>
       </c>
       <c r="C40" t="n">
         <v>345.47</v>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>348.91</v>
+        <v>348.97</v>
       </c>
       <c r="C41" t="n">
         <v>343.33</v>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>349.51</v>
+        <v>349.56</v>
       </c>
       <c r="C42" t="n">
         <v>343.7</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>348.92</v>
+        <v>349.02</v>
       </c>
       <c r="C43" t="n">
         <v>341.57</v>
@@ -1876,7 +1876,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.19</v>
+        <v>351.43</v>
       </c>
       <c r="C44" t="n">
         <v>339.49</v>
@@ -1909,7 +1909,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>350.29</v>
+        <v>350.52</v>
       </c>
       <c r="C45" t="n">
         <v>340.25</v>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>349.3</v>
+        <v>349.48</v>
       </c>
       <c r="C46" t="n">
         <v>340.86</v>
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>347.89</v>
+        <v>348.12</v>
       </c>
       <c r="C47" t="n">
         <v>340.81</v>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>344.19</v>
+        <v>344.33</v>
       </c>
       <c r="C48" t="n">
         <v>339.17</v>
@@ -2041,7 +2041,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>342.62</v>
+        <v>342.79</v>
       </c>
       <c r="C49" t="n">
         <v>338.68</v>
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>340.22</v>
+        <v>340.42</v>
       </c>
       <c r="C50" t="n">
         <v>340.18</v>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>340.07</v>
+        <v>340.29</v>
       </c>
       <c r="C51" t="n">
         <v>340.55</v>
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>341.84</v>
+        <v>341.95</v>
       </c>
       <c r="C52" t="n">
         <v>342.33</v>
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>342.22</v>
+        <v>342.36</v>
       </c>
       <c r="C53" t="n">
         <v>343.06</v>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>341.82</v>
+        <v>341.96</v>
       </c>
       <c r="C54" t="n">
         <v>342.58</v>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>342.44</v>
+        <v>342.64</v>
       </c>
       <c r="C55" t="n">
         <v>344.25</v>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>343.99</v>
+        <v>344.15</v>
       </c>
       <c r="C56" t="n">
         <v>344.03</v>
@@ -2305,7 +2305,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>342.85</v>
+        <v>343.01</v>
       </c>
       <c r="C57" t="n">
         <v>345.17</v>
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>341.44</v>
+        <v>341.58</v>
       </c>
       <c r="C58" t="n">
         <v>343.38</v>
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>339.06</v>
+        <v>339.32</v>
       </c>
       <c r="C59" t="n">
         <v>340.54</v>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>336.8</v>
+        <v>337.02</v>
       </c>
       <c r="C60" t="n">
         <v>338.01</v>
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>336.62</v>
+        <v>336.82</v>
       </c>
       <c r="C61" t="n">
         <v>338.4</v>
@@ -2470,7 +2470,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>338.9</v>
+        <v>339.12</v>
       </c>
       <c r="C62" t="n">
         <v>340.2</v>
@@ -2503,7 +2503,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>340.88</v>
+        <v>341.1</v>
       </c>
       <c r="C63" t="n">
         <v>340.59</v>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>337.59</v>
+        <v>337.8</v>
       </c>
       <c r="C64" t="n">
         <v>337.42</v>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>337.98</v>
+        <v>338.13</v>
       </c>
       <c r="C65" t="n">
         <v>338.22</v>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>338.63</v>
+        <v>338.77</v>
       </c>
       <c r="C66" t="n">
         <v>339.2</v>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>336.89</v>
+        <v>337.04</v>
       </c>
       <c r="C67" t="n">
         <v>337.79</v>
@@ -2668,7 +2668,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>337.89</v>
+        <v>338.01</v>
       </c>
       <c r="C68" t="n">
         <v>339.43</v>
@@ -2701,7 +2701,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>336.81</v>
+        <v>336.86</v>
       </c>
       <c r="C69" t="n">
         <v>338.36</v>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>334.26</v>
+        <v>334.29</v>
       </c>
       <c r="C71" t="n">
         <v>335.52</v>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>334.84</v>
+        <v>334.87</v>
       </c>
       <c r="C72" t="n">
         <v>335.52</v>
@@ -2833,7 +2833,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>339.82</v>
+        <v>339.93</v>
       </c>
       <c r="C73" t="n">
         <v>340.14</v>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>340.76</v>
+        <v>340.91</v>
       </c>
       <c r="C74" t="n">
         <v>339.84</v>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>342.28</v>
+        <v>342.39</v>
       </c>
       <c r="C75" t="n">
         <v>339.69</v>
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>344</v>
+        <v>344.08</v>
       </c>
       <c r="C76" t="n">
         <v>340.39</v>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>342</v>
+        <v>342.02</v>
       </c>
       <c r="C77" t="n">
         <v>339.04</v>
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>330.29</v>
+        <v>330.07</v>
       </c>
       <c r="C78" t="n">
         <v>331.67</v>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>322.63</v>
+        <v>322.36</v>
       </c>
       <c r="C79" t="n">
         <v>327.28</v>
@@ -3064,7 +3064,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>325.93</v>
+        <v>325.9</v>
       </c>
       <c r="C80" t="n">
         <v>327.47</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>334.71</v>
+        <v>334.72</v>
       </c>
       <c r="C81" t="n">
         <v>334.66</v>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>339.31</v>
+        <v>339.5</v>
       </c>
       <c r="C82" t="n">
         <v>334.67</v>
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>340.12</v>
+        <v>340.34</v>
       </c>
       <c r="C83" t="n">
         <v>337.66</v>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>341.95</v>
+        <v>342.27</v>
       </c>
       <c r="C84" t="n">
         <v>346.52</v>
@@ -3229,7 +3229,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>339.81</v>
+        <v>340.07</v>
       </c>
       <c r="C85" t="n">
         <v>342.86</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>341.22</v>
+        <v>341.44</v>
       </c>
       <c r="C86" t="n">
         <v>342.85</v>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>339.2</v>
+        <v>339.45</v>
       </c>
       <c r="C87" t="n">
         <v>338.14</v>
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>337.2</v>
+        <v>337.33</v>
       </c>
       <c r="C88" t="n">
         <v>337.68</v>
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>339.12</v>
+        <v>339.16</v>
       </c>
       <c r="C89" t="n">
         <v>338.7</v>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>337.75</v>
+        <v>337.69</v>
       </c>
       <c r="C90" t="n">
         <v>337.31</v>
@@ -3427,7 +3427,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>339.2</v>
+        <v>339.1</v>
       </c>
       <c r="C91" t="n">
         <v>338.81</v>
@@ -3460,7 +3460,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>339.77</v>
+        <v>339.62</v>
       </c>
       <c r="C92" t="n">
         <v>339.19</v>
@@ -3493,7 +3493,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>338.49</v>
+        <v>338.39</v>
       </c>
       <c r="C93" t="n">
         <v>337.39</v>
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>339.45</v>
+        <v>339.28</v>
       </c>
       <c r="C94" t="n">
         <v>339.34</v>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>339.64</v>
+        <v>339.56</v>
       </c>
       <c r="C95" t="n">
         <v>340.3</v>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>340.09</v>
+        <v>340.22</v>
       </c>
       <c r="C96" t="n">
         <v>339.49</v>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>339.01</v>
+        <v>339.19</v>
       </c>
       <c r="C97" t="n">
         <v>338.87</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>340.03</v>
+        <v>340.19</v>
       </c>
       <c r="C98" t="n">
         <v>340.03</v>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>340.91</v>
+        <v>340.99</v>
       </c>
       <c r="C99" t="n">
         <v>340.36</v>
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>335.75</v>
+        <v>335.63</v>
       </c>
       <c r="C101" t="n">
         <v>337.65</v>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>337.72</v>
+        <v>337.6</v>
       </c>
       <c r="C102" t="n">
         <v>341.46</v>
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>339.46</v>
+        <v>339.63</v>
       </c>
       <c r="C103" t="n">
         <v>340.71</v>
@@ -3856,7 +3856,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>337.99</v>
+        <v>338.07</v>
       </c>
       <c r="C104" t="n">
         <v>338.38</v>
@@ -3889,7 +3889,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>341.44</v>
+        <v>341.61</v>
       </c>
       <c r="C105" t="n">
         <v>341.33</v>
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>340.25</v>
+        <v>340.41</v>
       </c>
       <c r="C106" t="n">
         <v>339.27</v>
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>338.68</v>
+        <v>338.87</v>
       </c>
       <c r="C107" t="n">
         <v>337.7</v>
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>336.67</v>
+        <v>336.69</v>
       </c>
       <c r="C108" t="n">
         <v>336.5</v>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>335.83</v>
+        <v>335.77</v>
       </c>
       <c r="C110" t="n">
         <v>335.05</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>334.21</v>
+        <v>334.16</v>
       </c>
       <c r="C111" t="n">
         <v>332.96</v>
@@ -4120,7 +4120,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>333.5</v>
+        <v>333.39</v>
       </c>
       <c r="C112" t="n">
         <v>328.88</v>
@@ -4153,7 +4153,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>332.54</v>
+        <v>332.38</v>
       </c>
       <c r="C113" t="n">
         <v>325.5</v>
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>332.62</v>
+        <v>332.87</v>
       </c>
       <c r="C114" t="n">
         <v>320.44</v>
@@ -4219,7 +4219,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>326.62</v>
+        <v>326.89</v>
       </c>
       <c r="C115" t="n">
         <v>324.61</v>
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>327.12</v>
+        <v>327.33</v>
       </c>
       <c r="C116" t="n">
         <v>327.82</v>
@@ -4285,7 +4285,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>328.24</v>
+        <v>328.33</v>
       </c>
       <c r="C117" t="n">
         <v>330.98</v>
@@ -4318,7 +4318,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>332.81</v>
+        <v>332.94</v>
       </c>
       <c r="C118" t="n">
         <v>336.39</v>
@@ -4351,7 +4351,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>336.09</v>
+        <v>336.23</v>
       </c>
       <c r="C119" t="n">
         <v>334.48</v>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>337.56</v>
+        <v>337.58</v>
       </c>
       <c r="C120" t="n">
         <v>335.3</v>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>338.23</v>
+        <v>338.3</v>
       </c>
       <c r="C121" t="n">
         <v>338.04</v>
@@ -4450,7 +4450,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>337.94</v>
+        <v>338.05</v>
       </c>
       <c r="C122" t="n">
         <v>338.2</v>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>339.63</v>
+        <v>339.57</v>
       </c>
       <c r="C123" t="n">
         <v>340.16</v>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>341.2</v>
+        <v>341.23</v>
       </c>
       <c r="C124" t="n">
         <v>342.94</v>
@@ -4549,7 +4549,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>340.93</v>
+        <v>340.89</v>
       </c>
       <c r="C125" t="n">
         <v>343.12</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>340.93</v>
+        <v>340.89</v>
       </c>
       <c r="C126" t="n">
         <v>343.12</v>
@@ -4615,7 +4615,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>340.61</v>
+        <v>340.58</v>
       </c>
       <c r="C127" t="n">
         <v>342.68</v>
@@ -4648,7 +4648,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>340.75</v>
+        <v>340.79</v>
       </c>
       <c r="C128" t="n">
         <v>341.68</v>
@@ -4681,7 +4681,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>341.25</v>
+        <v>341.37</v>
       </c>
       <c r="C129" t="n">
         <v>343.5</v>
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>341.25</v>
+        <v>341.37</v>
       </c>
       <c r="C130" t="n">
         <v>343.5</v>
@@ -4747,7 +4747,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>340.68</v>
+        <v>340.8</v>
       </c>
       <c r="C131" t="n">
         <v>343.01</v>
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>340.32</v>
+        <v>340.42</v>
       </c>
       <c r="C132" t="n">
         <v>343.22</v>
@@ -4813,7 +4813,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>335.15</v>
+        <v>335.18</v>
       </c>
       <c r="C133" t="n">
         <v>341.74</v>
@@ -4879,7 +4879,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>334.57</v>
+        <v>334.66</v>
       </c>
       <c r="C135" t="n">
         <v>339.09</v>
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>334.93</v>
+        <v>334.95</v>
       </c>
       <c r="C136" t="n">
         <v>338.74</v>
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>336.05</v>
+        <v>336.13</v>
       </c>
       <c r="C137" t="n">
         <v>337.02</v>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>334.46</v>
+        <v>334.45</v>
       </c>
       <c r="C138" t="n">
         <v>334.96</v>
@@ -5011,7 +5011,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>334.45</v>
+        <v>334.46</v>
       </c>
       <c r="C139" t="n">
         <v>334.7</v>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>335.15</v>
+        <v>335.16</v>
       </c>
       <c r="C140" t="n">
         <v>335.73</v>
@@ -5077,7 +5077,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>335.21</v>
+        <v>335.24</v>
       </c>
       <c r="C141" t="n">
         <v>334.95</v>
@@ -5110,7 +5110,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>336.25</v>
+        <v>336.3</v>
       </c>
       <c r="C142" t="n">
         <v>336.19</v>
@@ -5143,7 +5143,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>337.74</v>
+        <v>337.75</v>
       </c>
       <c r="C143" t="n">
         <v>336.69</v>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>339.95</v>
+        <v>340.01</v>
       </c>
       <c r="C144" t="n">
         <v>336.82</v>
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>340.99</v>
+        <v>341.11</v>
       </c>
       <c r="C145" t="n">
         <v>337.74</v>
@@ -5242,7 +5242,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>342.45</v>
+        <v>342.58</v>
       </c>
       <c r="C146" t="n">
         <v>339.01</v>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>341.48</v>
+        <v>341.59</v>
       </c>
       <c r="C147" t="n">
         <v>338.76</v>
@@ -5308,7 +5308,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>342.01</v>
+        <v>342.12</v>
       </c>
       <c r="C148" t="n">
         <v>339.71</v>
@@ -5341,7 +5341,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>340.76</v>
+        <v>340.84</v>
       </c>
       <c r="C149" t="n">
         <v>340.56</v>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>341.14</v>
+        <v>341.19</v>
       </c>
       <c r="C150" t="n">
         <v>340.62</v>
@@ -5407,7 +5407,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>340.9</v>
+        <v>340.97</v>
       </c>
       <c r="C151" t="n">
         <v>340.31</v>
@@ -5440,7 +5440,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>338.86</v>
+        <v>338.93</v>
       </c>
       <c r="C152" t="n">
         <v>338.33</v>
@@ -5473,7 +5473,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>339.2</v>
+        <v>339.32</v>
       </c>
       <c r="C153" t="n">
         <v>337.6</v>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>334.29</v>
+        <v>334.25</v>
       </c>
       <c r="C154" t="n">
         <v>332.79</v>
@@ -5539,7 +5539,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>335.52</v>
+        <v>335.55</v>
       </c>
       <c r="C155" t="n">
         <v>333.55</v>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>331.47</v>
+        <v>331.46</v>
       </c>
       <c r="C156" t="n">
         <v>330.82</v>
@@ -5605,7 +5605,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>333.2</v>
+        <v>333.3</v>
       </c>
       <c r="C157" t="n">
         <v>332.39</v>
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>334.71</v>
+        <v>334.78</v>
       </c>
       <c r="C158" t="n">
         <v>333.61</v>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>335.65</v>
+        <v>335.72</v>
       </c>
       <c r="C159" t="n">
         <v>335.54</v>
@@ -5704,7 +5704,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>335.81</v>
+        <v>335.89</v>
       </c>
       <c r="C160" t="n">
         <v>336.3</v>
@@ -5737,7 +5737,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>336.62</v>
+        <v>336.7</v>
       </c>
       <c r="C161" t="n">
         <v>336.69</v>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>337.65</v>
+        <v>337.64</v>
       </c>
       <c r="C162" t="n">
         <v>337.94</v>
@@ -5803,7 +5803,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>339.29</v>
+        <v>339.25</v>
       </c>
       <c r="C163" t="n">
         <v>338.81</v>
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>337.12</v>
+        <v>337.11</v>
       </c>
       <c r="C164" t="n">
         <v>338.89</v>
@@ -5869,7 +5869,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>338.17</v>
+        <v>338.13</v>
       </c>
       <c r="C165" t="n">
         <v>339.22</v>
@@ -5902,7 +5902,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>336.79</v>
+        <v>336.75</v>
       </c>
       <c r="C166" t="n">
         <v>338.09</v>
@@ -5935,7 +5935,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>337.46</v>
+        <v>337.42</v>
       </c>
       <c r="C167" t="n">
         <v>338.1</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>340.17</v>
+        <v>340.11</v>
       </c>
       <c r="C168" t="n">
         <v>340.67</v>
@@ -6001,7 +6001,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>339.78</v>
+        <v>339.63</v>
       </c>
       <c r="C169" t="n">
         <v>340.02</v>
@@ -6034,7 +6034,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>335.67</v>
+        <v>335.65</v>
       </c>
       <c r="C170" t="n">
         <v>336.75</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>338.77</v>
+        <v>338.78</v>
       </c>
       <c r="C171" t="n">
         <v>338.29</v>
@@ -6100,7 +6100,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>339.34</v>
+        <v>339.4</v>
       </c>
       <c r="C172" t="n">
         <v>339.59</v>
@@ -6133,7 +6133,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>337.25</v>
+        <v>337.32</v>
       </c>
       <c r="C173" t="n">
         <v>337.9</v>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>336.56</v>
+        <v>336.67</v>
       </c>
       <c r="C174" t="n">
         <v>336.5</v>
@@ -6199,7 +6199,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>333.46</v>
+        <v>333.51</v>
       </c>
       <c r="C175" t="n">
         <v>334.06</v>
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>334.26</v>
+        <v>334.32</v>
       </c>
       <c r="C176" t="n">
         <v>335.88</v>
@@ -6265,7 +6265,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>333.99</v>
+        <v>334.03</v>
       </c>
       <c r="C177" t="n">
         <v>335.35</v>
@@ -6298,7 +6298,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>334.36</v>
+        <v>334.37</v>
       </c>
       <c r="C178" t="n">
         <v>336.38</v>
@@ -6331,7 +6331,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>335.32</v>
+        <v>335.27</v>
       </c>
       <c r="C179" t="n">
         <v>337.95</v>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>335.46</v>
+        <v>335.39</v>
       </c>
       <c r="C180" t="n">
         <v>338.51</v>
@@ -6397,7 +6397,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>334.51</v>
+        <v>334.38</v>
       </c>
       <c r="C181" t="n">
         <v>337.95</v>
@@ -6430,7 +6430,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>340.15</v>
+        <v>340.01</v>
       </c>
       <c r="C182" t="n">
         <v>345.17</v>
@@ -6463,7 +6463,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>338.44</v>
+        <v>338.4</v>
       </c>
       <c r="C183" t="n">
         <v>341.39</v>
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>336.84</v>
+        <v>336.86</v>
       </c>
       <c r="C184" t="n">
         <v>338.86</v>
@@ -6529,7 +6529,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>333.97</v>
+        <v>334.22</v>
       </c>
       <c r="C185" t="n">
         <v>334.58</v>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>334.17</v>
+        <v>334.29</v>
       </c>
       <c r="C186" t="n">
         <v>332.82</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>331.63</v>
+        <v>331.7</v>
       </c>
       <c r="C187" t="n">
         <v>329.88</v>
@@ -6628,7 +6628,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>333.09</v>
+        <v>333.11</v>
       </c>
       <c r="C188" t="n">
         <v>330.2</v>
@@ -6661,7 +6661,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>337.97</v>
+        <v>337.84</v>
       </c>
       <c r="C189" t="n">
         <v>334.99</v>
@@ -6694,7 +6694,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>338.23</v>
+        <v>338.17</v>
       </c>
       <c r="C190" t="n">
         <v>337.06</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>338.96</v>
+        <v>338.98</v>
       </c>
       <c r="C191" t="n">
         <v>339.11</v>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>339.13</v>
+        <v>339.1</v>
       </c>
       <c r="C192" t="n">
         <v>339.46</v>
@@ -6793,7 +6793,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>338.91</v>
+        <v>338.86</v>
       </c>
       <c r="C193" t="n">
         <v>340.05</v>
@@ -6826,7 +6826,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>339.14</v>
+        <v>339.1</v>
       </c>
       <c r="C194" t="n">
         <v>341.19</v>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>339.82</v>
+        <v>339.78</v>
       </c>
       <c r="C195" t="n">
         <v>345.59</v>
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>339.67</v>
+        <v>339.5</v>
       </c>
       <c r="C196" t="n">
         <v>344.1</v>
@@ -6925,7 +6925,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>340.36</v>
+        <v>340.28</v>
       </c>
       <c r="C197" t="n">
         <v>344.83</v>
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>341.51</v>
+        <v>341.38</v>
       </c>
       <c r="C198" t="n">
         <v>344.45</v>
@@ -6991,7 +6991,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>342.58</v>
+        <v>342.56</v>
       </c>
       <c r="C199" t="n">
         <v>346.3</v>
@@ -7024,7 +7024,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>345.13</v>
+        <v>345.06</v>
       </c>
       <c r="C200" t="n">
         <v>347.35</v>
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>347.52</v>
+        <v>347.46</v>
       </c>
       <c r="C201" t="n">
         <v>348.15</v>
@@ -7090,7 +7090,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>348.52</v>
+        <v>348.47</v>
       </c>
       <c r="C202" t="n">
         <v>347.16</v>
@@ -7123,7 +7123,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>351.93</v>
+        <v>351.96</v>
       </c>
       <c r="C203" t="n">
         <v>350.44</v>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>350.16</v>
+        <v>350.15</v>
       </c>
       <c r="C204" t="n">
         <v>349.21</v>
@@ -7189,7 +7189,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>350.16</v>
+        <v>350.15</v>
       </c>
       <c r="C205" t="n">
         <v>349.21</v>
@@ -7222,7 +7222,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>348.43</v>
+        <v>348.46</v>
       </c>
       <c r="C206" t="n">
         <v>347.13</v>
@@ -7255,7 +7255,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>347.26</v>
+        <v>347.25</v>
       </c>
       <c r="C207" t="n">
         <v>346.4</v>
@@ -7288,7 +7288,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>346.04</v>
+        <v>346.01</v>
       </c>
       <c r="C208" t="n">
         <v>345.79</v>
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>344.93</v>
+        <v>344.87</v>
       </c>
       <c r="C209" t="n">
         <v>342.83</v>
@@ -7354,7 +7354,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>339</v>
+        <v>338.95</v>
       </c>
       <c r="C210" t="n">
         <v>340.69</v>
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>337.29</v>
+        <v>337.21</v>
       </c>
       <c r="C211" t="n">
         <v>337.83</v>
@@ -7420,7 +7420,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>339.84</v>
+        <v>339.68</v>
       </c>
       <c r="C212" t="n">
         <v>340.17</v>
@@ -7453,7 +7453,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>343.98</v>
+        <v>343.91</v>
       </c>
       <c r="C213" t="n">
         <v>342.41</v>
@@ -7486,7 +7486,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>343.54</v>
+        <v>343.42</v>
       </c>
       <c r="C214" t="n">
         <v>342.08</v>
@@ -7519,7 +7519,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>344.55</v>
+        <v>344.5</v>
       </c>
       <c r="C215" t="n">
         <v>343.42</v>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>344.65</v>
+        <v>344.66</v>
       </c>
       <c r="C216" t="n">
         <v>344.88</v>
@@ -7585,7 +7585,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>345.03</v>
+        <v>345.09</v>
       </c>
       <c r="C217" t="n">
         <v>346.45</v>
@@ -7618,7 +7618,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>346.84</v>
+        <v>346.91</v>
       </c>
       <c r="C218" t="n">
         <v>349.1</v>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>346.84</v>
+        <v>346.91</v>
       </c>
       <c r="C219" t="n">
         <v>349.1</v>
@@ -7684,7 +7684,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>345.43</v>
+        <v>345.5</v>
       </c>
       <c r="C220" t="n">
         <v>348.19</v>
@@ -7717,7 +7717,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>344.72</v>
+        <v>344.75</v>
       </c>
       <c r="C221" t="n">
         <v>347.67</v>
@@ -7750,7 +7750,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>343.22</v>
+        <v>343.27</v>
       </c>
       <c r="C222" t="n">
         <v>347.82</v>
@@ -7783,7 +7783,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>340.42</v>
+        <v>340.41</v>
       </c>
       <c r="C223" t="n">
         <v>346.53</v>
@@ -7816,7 +7816,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>341.19</v>
+        <v>341.24</v>
       </c>
       <c r="C224" t="n">
         <v>347.31</v>
@@ -7849,7 +7849,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>345.85</v>
+        <v>345.82</v>
       </c>
       <c r="C225" t="n">
         <v>351.33</v>
@@ -7882,7 +7882,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>343.82</v>
+        <v>343.73</v>
       </c>
       <c r="C226" t="n">
         <v>348.88</v>
@@ -7915,7 +7915,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>343.58</v>
+        <v>343.54</v>
       </c>
       <c r="C227" t="n">
         <v>349.07</v>
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>342.85</v>
+        <v>342.82</v>
       </c>
       <c r="C228" t="n">
         <v>347.08</v>
@@ -7981,7 +7981,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>343.87</v>
+        <v>343.83</v>
       </c>
       <c r="C229" t="n">
         <v>347.74</v>
@@ -8014,7 +8014,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>344.35</v>
+        <v>344.38</v>
       </c>
       <c r="C230" t="n">
         <v>348.7</v>
@@ -8047,7 +8047,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>344.12</v>
+        <v>344.19</v>
       </c>
       <c r="C231" t="n">
         <v>347.98</v>
@@ -8080,7 +8080,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>346.1</v>
+        <v>346.19</v>
       </c>
       <c r="C232" t="n">
         <v>348.85</v>
@@ -8113,7 +8113,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>346.36</v>
+        <v>346.46</v>
       </c>
       <c r="C233" t="n">
         <v>348.96</v>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>342.8</v>
+        <v>342.97</v>
       </c>
       <c r="C234" t="n">
         <v>345.15</v>
@@ -8179,7 +8179,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>342.96</v>
+        <v>343.2</v>
       </c>
       <c r="C235" t="n">
         <v>345.29</v>
@@ -8212,7 +8212,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>341.15</v>
+        <v>341.32</v>
       </c>
       <c r="C236" t="n">
         <v>343.96</v>
@@ -8245,7 +8245,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>342.37</v>
+        <v>342.54</v>
       </c>
       <c r="C237" t="n">
         <v>344.87</v>
@@ -8278,7 +8278,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>343.22</v>
+        <v>343.39</v>
       </c>
       <c r="C238" t="n">
         <v>346.47</v>
@@ -8311,7 +8311,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>340.42</v>
+        <v>340.58</v>
       </c>
       <c r="C239" t="n">
         <v>344.09</v>
@@ -8344,7 +8344,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>339.76</v>
+        <v>339.83</v>
       </c>
       <c r="C240" t="n">
         <v>343.15</v>
@@ -8377,7 +8377,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>340.06</v>
+        <v>340.1</v>
       </c>
       <c r="C241" t="n">
         <v>343.46</v>
@@ -8410,7 +8410,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>338.5</v>
+        <v>338.56</v>
       </c>
       <c r="C242" t="n">
         <v>342.55</v>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>337.1</v>
+        <v>337.16</v>
       </c>
       <c r="C243" t="n">
         <v>341.93</v>
@@ -8476,7 +8476,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>336.17</v>
+        <v>336.24</v>
       </c>
       <c r="C244" t="n">
         <v>341.34</v>
@@ -8509,7 +8509,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>336.66</v>
+        <v>336.73</v>
       </c>
       <c r="C245" t="n">
         <v>340.9</v>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>338.85</v>
+        <v>338.93</v>
       </c>
       <c r="C246" t="n">
         <v>341.71</v>
@@ -8575,7 +8575,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>339.19</v>
+        <v>339.27</v>
       </c>
       <c r="C247" t="n">
         <v>342.36</v>
@@ -8608,7 +8608,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>339.77</v>
+        <v>340.03</v>
       </c>
       <c r="C248" t="n">
         <v>342.17</v>
@@ -8641,7 +8641,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>342.49</v>
+        <v>342.74</v>
       </c>
       <c r="C249" t="n">
         <v>343.69</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>343.74</v>
+        <v>343.91</v>
       </c>
       <c r="C250" t="n">
         <v>343.87</v>
@@ -8707,7 +8707,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>344.84</v>
+        <v>345.01</v>
       </c>
       <c r="C251" t="n">
         <v>343.76</v>
@@ -8740,7 +8740,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>346.25</v>
+        <v>346.4</v>
       </c>
       <c r="C252" t="n">
         <v>344.33</v>
@@ -8773,7 +8773,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>344.97</v>
+        <v>345.11</v>
       </c>
       <c r="C253" t="n">
         <v>343.06</v>
@@ -8806,7 +8806,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>345.26</v>
+        <v>345.36</v>
       </c>
       <c r="C254" t="n">
         <v>343.07</v>
@@ -8839,7 +8839,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>344.17</v>
+        <v>344.27</v>
       </c>
       <c r="C255" t="n">
         <v>342.59</v>
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>344.34</v>
+        <v>344.42</v>
       </c>
       <c r="C256" t="n">
         <v>343.11</v>
@@ -8905,7 +8905,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>344.38</v>
+        <v>344.43</v>
       </c>
       <c r="C257" t="n">
         <v>343.31</v>
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>346.34</v>
+        <v>346.37</v>
       </c>
       <c r="C258" t="n">
         <v>344.37</v>
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>347.58</v>
+        <v>347.62</v>
       </c>
       <c r="C259" t="n">
         <v>345.12</v>
@@ -9004,7 +9004,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>347.05</v>
+        <v>347.1</v>
       </c>
       <c r="C260" t="n">
         <v>344.09</v>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>347.22</v>
+        <v>347.27</v>
       </c>
       <c r="C261" t="n">
         <v>343.7</v>
@@ -9070,7 +9070,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>347.81</v>
+        <v>347.8</v>
       </c>
       <c r="C262" t="n">
         <v>344.44</v>
@@ -9103,7 +9103,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>347.07</v>
+        <v>347.1</v>
       </c>
       <c r="C263" t="n">
         <v>344.21</v>
@@ -9136,7 +9136,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>346.41</v>
+        <v>346.44</v>
       </c>
       <c r="C264" t="n">
         <v>343.76</v>
@@ -9169,7 +9169,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>345.84</v>
+        <v>345.87</v>
       </c>
       <c r="C265" t="n">
         <v>343.82</v>
@@ -9202,7 +9202,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>346.15</v>
+        <v>346.17</v>
       </c>
       <c r="C266" t="n">
         <v>344.09</v>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>347.61</v>
+        <v>347.63</v>
       </c>
       <c r="C267" t="n">
         <v>344.59</v>
@@ -9268,7 +9268,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>346.26</v>
+        <v>346.24</v>
       </c>
       <c r="C268" t="n">
         <v>343.16</v>
@@ -9301,7 +9301,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>345.87</v>
+        <v>345.84</v>
       </c>
       <c r="C269" t="n">
         <v>342.89</v>
@@ -9334,7 +9334,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>345.59</v>
+        <v>345.62</v>
       </c>
       <c r="C270" t="n">
         <v>342.05</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>345.59</v>
+        <v>345.62</v>
       </c>
       <c r="C271" t="n">
         <v>342.05</v>
@@ -9400,7 +9400,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>341.83</v>
+        <v>341.86</v>
       </c>
       <c r="C272" t="n">
         <v>339.72</v>
@@ -9433,7 +9433,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>342.03</v>
+        <v>342.06</v>
       </c>
       <c r="C273" t="n">
         <v>340.16</v>
@@ -9466,7 +9466,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>342.92</v>
+        <v>342.94</v>
       </c>
       <c r="C274" t="n">
         <v>341.74</v>
@@ -9499,7 +9499,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>341.57</v>
+        <v>341.59</v>
       </c>
       <c r="C275" t="n">
         <v>341.22</v>
@@ -9532,7 +9532,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>343.05</v>
+        <v>343.1</v>
       </c>
       <c r="C276" t="n">
         <v>340.69</v>
@@ -9565,7 +9565,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>343.58</v>
+        <v>343.64</v>
       </c>
       <c r="C277" t="n">
         <v>342.69</v>
@@ -9598,7 +9598,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>342.46</v>
+        <v>342.51</v>
       </c>
       <c r="C278" t="n">
         <v>342.8</v>
@@ -9631,7 +9631,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>344.52</v>
+        <v>344.72</v>
       </c>
       <c r="C279" t="n">
         <v>346.9</v>
@@ -9664,7 +9664,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>347.7</v>
+        <v>347.88</v>
       </c>
       <c r="C280" t="n">
         <v>349.67</v>
@@ -9697,7 +9697,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>346.1</v>
+        <v>346.2</v>
       </c>
       <c r="C281" t="n">
         <v>346.57</v>
@@ -9730,7 +9730,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>345.43</v>
+        <v>345.52</v>
       </c>
       <c r="C282" t="n">
         <v>345.22</v>
@@ -9763,7 +9763,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>346.64</v>
+        <v>346.72</v>
       </c>
       <c r="C283" t="n">
         <v>345.48</v>
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>346.22</v>
+        <v>346.24</v>
       </c>
       <c r="C284" t="n">
         <v>347.54</v>
@@ -9829,7 +9829,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>345.42</v>
+        <v>345.48</v>
       </c>
       <c r="C285" t="n">
         <v>350.42</v>
@@ -9862,7 +9862,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>345.42</v>
+        <v>345.48</v>
       </c>
       <c r="C286" t="n">
         <v>350.09</v>
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>346.34</v>
+        <v>346.36</v>
       </c>
       <c r="C287" t="n">
         <v>350.09</v>
@@ -9928,7 +9928,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>348.88</v>
+        <v>348.93</v>
       </c>
       <c r="C288" t="n">
         <v>353.14</v>
@@ -9961,7 +9961,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>350.16</v>
+        <v>350.2</v>
       </c>
       <c r="C289" t="n">
         <v>352.66</v>
@@ -9994,7 +9994,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>350.16</v>
+        <v>350.2</v>
       </c>
       <c r="C290" t="n">
         <v>352.66</v>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>353.15</v>
+        <v>353.22</v>
       </c>
       <c r="C291" t="n">
         <v>353.2</v>
@@ -10060,7 +10060,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>351.52</v>
+        <v>351.55</v>
       </c>
       <c r="C292" t="n">
         <v>352.62</v>
@@ -10093,7 +10093,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>352.12</v>
+        <v>352.11</v>
       </c>
       <c r="C293" t="n">
         <v>352.42</v>
@@ -10126,7 +10126,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>352.12</v>
+        <v>352.11</v>
       </c>
       <c r="C294" t="n">
         <v>352.42</v>
@@ -10159,7 +10159,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>351.26</v>
+        <v>351.27</v>
       </c>
       <c r="C295" t="n">
         <v>352.2</v>
@@ -10192,7 +10192,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>350.19</v>
+        <v>350.22</v>
       </c>
       <c r="C296" t="n">
         <v>351.69</v>
@@ -10225,7 +10225,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>349.67</v>
+        <v>349.69</v>
       </c>
       <c r="C297" t="n">
         <v>351.21</v>
@@ -10258,7 +10258,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>348.08</v>
+        <v>348.09</v>
       </c>
       <c r="C298" t="n">
         <v>350.61</v>
@@ -10291,7 +10291,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>349.73</v>
+        <v>349.75</v>
       </c>
       <c r="C299" t="n">
         <v>349.65</v>
@@ -10324,7 +10324,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>349.65</v>
+        <v>349.64</v>
       </c>
       <c r="C300" t="n">
         <v>349.72</v>
@@ -10357,7 +10357,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>349.65</v>
+        <v>349.64</v>
       </c>
       <c r="C301" t="n">
         <v>351.16</v>
@@ -10390,7 +10390,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>348.86</v>
+        <v>348.85</v>
       </c>
       <c r="C302" t="n">
         <v>351.66</v>
@@ -10423,7 +10423,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>348.86</v>
+        <v>348.85</v>
       </c>
       <c r="C303" t="n">
         <v>351.66</v>
@@ -10456,7 +10456,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>349.31</v>
+        <v>349.28</v>
       </c>
       <c r="C304" t="n">
         <v>351.89</v>
@@ -10489,7 +10489,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>348.81</v>
+        <v>348.8</v>
       </c>
       <c r="C305" t="n">
         <v>351.59</v>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>349.91</v>
+        <v>349.9</v>
       </c>
       <c r="C306" t="n">
         <v>351.58</v>
@@ -10588,7 +10588,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>349.1</v>
+        <v>349.07</v>
       </c>
       <c r="C308" t="n">
         <v>350.44</v>
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>349.15</v>
+        <v>349.14</v>
       </c>
       <c r="C309" t="n">
         <v>350.8</v>
@@ -10687,7 +10687,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>349.7</v>
+        <v>349.75</v>
       </c>
       <c r="C311" t="n">
         <v>350.39</v>
@@ -10720,7 +10720,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>351.4</v>
+        <v>351.54</v>
       </c>
       <c r="C312" t="n">
         <v>350.61</v>
@@ -10753,7 +10753,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>351.17</v>
+        <v>351.32</v>
       </c>
       <c r="C313" t="n">
         <v>350.61</v>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>352.35</v>
+        <v>352.5</v>
       </c>
       <c r="C314" t="n">
         <v>349.09</v>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>353.8</v>
+        <v>353.88</v>
       </c>
       <c r="C315" t="n">
         <v>349.06</v>
@@ -10852,7 +10852,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>351.94</v>
+        <v>352.08</v>
       </c>
       <c r="C316" t="n">
         <v>349.75</v>
@@ -10885,7 +10885,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>352.84</v>
+        <v>352.91</v>
       </c>
       <c r="C317" t="n">
         <v>349.67</v>
@@ -10918,7 +10918,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>351.74</v>
+        <v>351.83</v>
       </c>
       <c r="C318" t="n">
         <v>350.08</v>
@@ -10951,7 +10951,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>351</v>
+        <v>351.08</v>
       </c>
       <c r="C319" t="n">
         <v>349.76</v>
@@ -10984,7 +10984,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>352.07</v>
+        <v>352.21</v>
       </c>
       <c r="C320" t="n">
         <v>350.7</v>
@@ -11017,7 +11017,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>348.81</v>
+        <v>349.16</v>
       </c>
       <c r="C321" t="n">
         <v>350.86</v>
@@ -11050,7 +11050,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>349.89</v>
+        <v>350.17</v>
       </c>
       <c r="C322" t="n">
         <v>349.14</v>
@@ -11083,7 +11083,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>350.25</v>
+        <v>350.53</v>
       </c>
       <c r="C323" t="n">
         <v>350.1</v>
@@ -11116,7 +11116,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>349.5</v>
+        <v>349.76</v>
       </c>
       <c r="C324" t="n">
         <v>350.34</v>
@@ -11149,7 +11149,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>350.6</v>
+        <v>350.79</v>
       </c>
       <c r="C325" t="n">
         <v>350.85</v>
@@ -11182,7 +11182,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>350.19</v>
+        <v>350.26</v>
       </c>
       <c r="C326" t="n">
         <v>349.69</v>
@@ -11215,7 +11215,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>348.58</v>
+        <v>348.7</v>
       </c>
       <c r="C327" t="n">
         <v>349.39</v>
@@ -11248,7 +11248,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>349.85</v>
+        <v>349.91</v>
       </c>
       <c r="C328" t="n">
         <v>349.8</v>
@@ -11281,7 +11281,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>348.67</v>
+        <v>348.73</v>
       </c>
       <c r="C329" t="n">
         <v>349.13</v>
@@ -11314,7 +11314,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>349.88</v>
+        <v>349.92</v>
       </c>
       <c r="C330" t="n">
         <v>349.09</v>
@@ -11347,7 +11347,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>349.1</v>
+        <v>349.14</v>
       </c>
       <c r="C331" t="n">
         <v>348.35</v>
@@ -11380,7 +11380,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>349.41</v>
+        <v>349.44</v>
       </c>
       <c r="C332" t="n">
         <v>348.32</v>
@@ -11413,7 +11413,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>349.01</v>
+        <v>349.06</v>
       </c>
       <c r="C333" t="n">
         <v>348.02</v>
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>349.63</v>
+        <v>349.61</v>
       </c>
       <c r="C334" t="n">
         <v>348.05</v>
@@ -11479,7 +11479,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>349.54</v>
+        <v>349.55</v>
       </c>
       <c r="C335" t="n">
         <v>348.64</v>
@@ -11545,7 +11545,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>349.91</v>
+        <v>349.89</v>
       </c>
       <c r="C337" t="n">
         <v>348.17</v>
@@ -11578,7 +11578,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>348.86</v>
+        <v>348.85</v>
       </c>
       <c r="C338" t="n">
         <v>347.6</v>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>348.73</v>
+        <v>348.71</v>
       </c>
       <c r="C339" t="n">
         <v>347.18</v>
@@ -11644,7 +11644,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>349.6</v>
+        <v>349.54</v>
       </c>
       <c r="C340" t="n">
         <v>347.75</v>
@@ -11677,7 +11677,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>349.22</v>
+        <v>349.15</v>
       </c>
       <c r="C341" t="n">
         <v>347.17</v>
@@ -11710,7 +11710,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>349.25</v>
+        <v>349.2</v>
       </c>
       <c r="C342" t="n">
         <v>347.4</v>
@@ -11733,6 +11733,39 @@
       <c r="I342" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>349.56</v>
+      </c>
+      <c r="C343" t="n">
+        <v>347.96</v>
+      </c>
+      <c r="D343" t="n">
+        <v>353.57</v>
+      </c>
+      <c r="E343" t="n">
+        <v>346.07</v>
+      </c>
+      <c r="F343" t="n">
+        <v>348.25</v>
+      </c>
+      <c r="G343" t="n">
+        <v>351.58</v>
+      </c>
+      <c r="H343" t="n">
+        <v>343.18</v>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -11747,7 +11780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B345"/>
+  <dimension ref="A1:B346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15205,6 +15238,16 @@
       </c>
       <c r="B345" t="n">
         <v>0.15</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -15369,37 +15412,37 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.105</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0882</v>
+        <v>0.08790000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1228</v>
+        <v>0.1223</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4524677850959211</v>
+        <v>0.4525785375067692</v>
       </c>
       <c r="J2" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K2" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3143993571899036</v>
+        <v>0.3134873572461533</v>
       </c>
       <c r="M2" t="n">
-        <v>3.836828781191187</v>
+        <v>3.857087921134506</v>
       </c>
       <c r="N2" t="n">
-        <v>24.06113910219655</v>
+        <v>24.25436186302789</v>
       </c>
       <c r="O2" t="n">
-        <v>4.905215500077091</v>
+        <v>4.924871761074383</v>
       </c>
       <c r="P2" t="n">
-        <v>334.6596831985319</v>
+        <v>334.7194003517737</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15450,34 +15493,34 @@
         <v>0.105</v>
       </c>
       <c r="G3" t="n">
-        <v>0.093</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.122</v>
+        <v>0.1217</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5020174072701535</v>
+        <v>0.5024270777689701</v>
       </c>
       <c r="J3" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K3" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3778403916110598</v>
+        <v>0.3796684072013993</v>
       </c>
       <c r="M3" t="n">
-        <v>3.737783894160858</v>
+        <v>3.72883727149662</v>
       </c>
       <c r="N3" t="n">
-        <v>22.36568853428573</v>
+        <v>22.30175027129753</v>
       </c>
       <c r="O3" t="n">
-        <v>4.729237627174778</v>
+        <v>4.722472897889148</v>
       </c>
       <c r="P3" t="n">
-        <v>334.0854539776975</v>
+        <v>334.0811623455529</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15528,34 +15571,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0745</v>
+        <v>0.0741</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0939</v>
+        <v>0.0936</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4287445849779702</v>
+        <v>0.4298645144235045</v>
       </c>
       <c r="J4" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K4" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2352075846469949</v>
+        <v>0.2372067342865909</v>
       </c>
       <c r="M4" t="n">
-        <v>3.860973417182484</v>
+        <v>3.853204301966867</v>
       </c>
       <c r="N4" t="n">
-        <v>32.21371676956407</v>
+        <v>32.13042431518087</v>
       </c>
       <c r="O4" t="n">
-        <v>5.675712886463168</v>
+        <v>5.668370516751783</v>
       </c>
       <c r="P4" t="n">
-        <v>340.3861246788666</v>
+        <v>340.3743925057616</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15606,34 +15649,34 @@
         <v>0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0871</v>
+        <v>0.0868</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1181</v>
+        <v>0.1175</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4010494724074649</v>
+        <v>0.4012626513306886</v>
       </c>
       <c r="J5" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K5" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3063010608675141</v>
+        <v>0.3078427503416338</v>
       </c>
       <c r="M5" t="n">
-        <v>3.330945961116685</v>
+        <v>3.321958291029655</v>
       </c>
       <c r="N5" t="n">
-        <v>19.63223382359973</v>
+        <v>19.57522456260415</v>
       </c>
       <c r="O5" t="n">
-        <v>4.430827668009639</v>
+        <v>4.424389739004029</v>
       </c>
       <c r="P5" t="n">
-        <v>335.188044040699</v>
+        <v>335.1858108178477</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15684,34 +15727,34 @@
         <v>0.12</v>
       </c>
       <c r="G6" t="n">
-        <v>0.109</v>
+        <v>0.1089</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1335</v>
+        <v>0.1334</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5061184995885415</v>
+        <v>0.5051296211536928</v>
       </c>
       <c r="J6" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K6" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4389458976685308</v>
+        <v>0.4393913239588688</v>
       </c>
       <c r="M6" t="n">
-        <v>3.142223562700973</v>
+        <v>3.139212377375998</v>
       </c>
       <c r="N6" t="n">
-        <v>17.64612947028732</v>
+        <v>17.60303064549225</v>
       </c>
       <c r="O6" t="n">
-        <v>4.200729635466597</v>
+        <v>4.195596578019894</v>
       </c>
       <c r="P6" t="n">
-        <v>336.6933554309422</v>
+        <v>336.7037147379716</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15762,34 +15805,34 @@
         <v>0.1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0919</v>
+        <v>0.09180000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1118</v>
+        <v>0.1117</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5716366778132627</v>
+        <v>0.5715664225017854</v>
       </c>
       <c r="J7" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K7" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4463180594924322</v>
+        <v>0.4477901347962024</v>
       </c>
       <c r="M7" t="n">
-        <v>3.847595566669929</v>
+        <v>3.836774063806453</v>
       </c>
       <c r="N7" t="n">
-        <v>21.84778237515242</v>
+        <v>21.78394286405232</v>
       </c>
       <c r="O7" t="n">
-        <v>4.674161141333535</v>
+        <v>4.667327164882737</v>
       </c>
       <c r="P7" t="n">
-        <v>336.711363370743</v>
+        <v>336.7120993523524</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15840,34 +15883,34 @@
         <v>0.065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0548</v>
+        <v>0.0549</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08649999999999999</v>
+        <v>0.08690000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4487751801661415</v>
+        <v>0.4456871564273488</v>
       </c>
       <c r="J8" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K8" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L8" t="n">
-        <v>0.232427041047768</v>
+        <v>0.2306615021254923</v>
       </c>
       <c r="M8" t="n">
-        <v>4.916376520654959</v>
+        <v>4.915791682127195</v>
       </c>
       <c r="N8" t="n">
-        <v>35.84610419525417</v>
+        <v>35.82416047862907</v>
       </c>
       <c r="O8" t="n">
-        <v>5.987161614258811</v>
+        <v>5.985328769468647</v>
       </c>
       <c r="P8" t="n">
-        <v>336.7651861239915</v>
+        <v>336.7975356877972</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -15905,7 +15948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I342"/>
+  <dimension ref="A1:I343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15968,7 +16011,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-35.45437988919522,174.42783825227812</t>
+          <t>-35.45437987126263,174.42783836025316</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -16015,7 +16058,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-35.45437685858253,174.42785650006007</t>
+          <t>-35.45437644613205,174.4278589834859</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -16062,7 +16105,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-35.454379907127844,174.42783814430308</t>
+          <t>-35.45437953054298,174.42784041177904</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -16109,7 +16152,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-35.45438196937752,174.42782572717252</t>
+          <t>-35.454381790051514,174.42782680692304</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -16156,7 +16199,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-35.4543871877602,174.42779430643043</t>
+          <t>-35.45438733122079,174.4277934426299</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -16203,7 +16246,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-35.45439055908216,174.42777400711708</t>
+          <t>-35.45439079220537,174.42777260344107</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -16250,7 +16293,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-35.45439131224938,174.42776947216385</t>
+          <t>-35.45439161710273,174.42776763658753</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -16297,7 +16340,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-35.454392173011705,174.42776428936006</t>
+          <t>-35.4543923702697,174.42776310163416</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -16344,7 +16387,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-35.454389949375255,174.42777767826962</t>
+          <t>-35.454389967307804,174.42777757029455</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -16391,7 +16434,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-35.454389644521754,174.42777951384588</t>
+          <t>-35.45438971625199,174.42777908194557</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -16438,7 +16481,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-35.45436816124687,174.42790886794685</t>
+          <t>-35.45436794605477,174.427910163647</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -16485,7 +16528,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-35.45437580055732,174.42786287058715</t>
+          <t>-35.454375621230994,174.4278639503375</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -16532,7 +16575,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-35.45437816766409,174.42784861788223</t>
+          <t>-35.4543781855967,174.42784850990722</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -16626,7 +16669,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-35.45440427745852,174.42769140616912</t>
+          <t>-35.45440422366107,174.42769173009447</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -16673,7 +16716,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-35.454396943065575,174.42773556798684</t>
+          <t>-35.4543969609981,174.42773546001175</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -16720,7 +16763,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-35.45439280065075,174.4277605102322</t>
+          <t>-35.45439283651584,174.42776029428202</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -16767,7 +16810,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-35.45439269305549,174.4277611580827</t>
+          <t>-35.454392603392776,174.42776169795812</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -16814,7 +16857,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-35.45439462976961,174.42774949677354</t>
+          <t>-35.45439445044427,174.4277505765244</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -16861,7 +16904,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-35.454390397689174,174.42777497889276</t>
+          <t>-35.45439023629616,174.42777595066843</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -16908,7 +16951,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-35.45438399576077,174.4278135259914</t>
+          <t>-35.45438387023262,174.42781428181678</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -16955,7 +16998,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-35.45438250735549,174.42782248792096</t>
+          <t>-35.4543823818273,174.42782324374633</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -17002,7 +17045,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-35.45438532277213,174.42780553583705</t>
+          <t>-35.45438530483955,174.4278056438121</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -17049,7 +17092,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-35.454377414493926,174.4278531528339</t>
+          <t>-35.45437786280952,174.42785045345792</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -17096,7 +17139,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-35.45437736069605,174.42785347675903</t>
+          <t>-35.4543774682918,174.42785282890878</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -17143,7 +17186,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-35.454377826944274,174.427850669408</t>
+          <t>-35.454377952472626,174.42784991358275</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -17190,7 +17233,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-35.45437985333001,174.42783846822823</t>
+          <t>-35.45437970986911,174.42783933202858</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -17237,7 +17280,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-35.45437400729351,174.42787366809026</t>
+          <t>-35.454373738303865,174.4278752877157</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -17284,7 +17327,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-35.4543748859929,174.42786837731379</t>
+          <t>-35.45437458113803,174.42787021288933</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -17331,7 +17374,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-35.45437918982331,174.42784246330487</t>
+          <t>-35.45437879530574,174.4278448387558</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -17378,7 +17421,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-35.45438101894957,174.42783144985017</t>
+          <t>-35.45438076789308,174.42783296150085</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -17425,7 +17468,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-35.45437827525982,174.427847970032</t>
+          <t>-35.45437780901166,174.42785077738304</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -17472,7 +17515,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-35.45438634492919,174.42779938125847</t>
+          <t>-35.454385986277615,174.42780154075976</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -17519,7 +17562,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-35.45437122773273,174.42789040421908</t>
+          <t>-35.45437138912664,174.42788943244386</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -17566,7 +17609,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-35.45436258418063,174.42794244817307</t>
+          <t>-35.454362386920884,174.42794363589803</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -17613,7 +17656,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-35.454366170719474,174.42792085317285</t>
+          <t>-35.45436586586381,174.42792268874797</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -17660,7 +17703,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-35.45436498716207,174.42792797952313</t>
+          <t>-35.45436480783516,174.4279290592732</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -17707,7 +17750,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-35.45436683422873,174.4279168580976</t>
+          <t>-35.45436669076728,174.42791772189767</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -17754,7 +17797,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-35.454362046199485,174.42794568742292</t>
+          <t>-35.45436193860324,174.42794633527288</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -17801,7 +17844,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-35.454362046199485,174.42794568742292</t>
+          <t>-35.45436193860324,174.42794633527288</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -17848,7 +17891,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-35.45436097023693,174.4279521659225</t>
+          <t>-35.45436088057336,174.42795270579745</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -17895,7 +17938,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-35.45436202826677,174.42794579539793</t>
+          <t>-35.4543618489397,174.42794687514788</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -17942,7 +17985,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-35.4543579575399,174.42797030572035</t>
+          <t>-35.45435752715439,174.4279728971199</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -17989,7 +18032,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-35.454359571485064,174.42796058797168</t>
+          <t>-35.4543591590325,174.4279630713964</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -18036,7 +18079,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-35.45436134682385,174.42794989844768</t>
+          <t>-35.45436102403505,174.42795184199753</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -18083,7 +18126,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-35.45436387533506,174.42793467397323</t>
+          <t>-35.454363462883,174.42793715739822</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -18130,7 +18173,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-35.45437051042634,174.42789472321985</t>
+          <t>-35.45437025936907,174.4278962348701</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -18177,7 +18220,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-35.45437332585301,174.4278777711413</t>
+          <t>-35.454373020998005,174.42787960671677</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -18224,7 +18267,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-35.45437762968542,174.42785185713345</t>
+          <t>-35.454377271032925,174.4278540166342</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -18271,7 +18314,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-35.45437789867476,174.42785023750787</t>
+          <t>-35.45437750415706,174.4278526129587</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -18318,7 +18361,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-35.45437472459916,174.42786934908906</t>
+          <t>-35.45437452734012,174.42787053681442</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -18365,7 +18408,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-35.45437404315881,174.4278734521402</t>
+          <t>-35.45437379210179,174.4278749637906</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -18412,7 +18455,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-35.45437476046443,174.427869133139</t>
+          <t>-35.45437450940747,174.42787064478944</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -18459,7 +18502,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-35.45437364864064,174.4278758275908</t>
+          <t>-35.45437328998773,174.42787798709134</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -18506,7 +18549,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-35.454370869079554,174.42789256371947</t>
+          <t>-35.45437058215698,174.42789429131977</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -18553,7 +18596,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-35.454372913402125,174.4278802545669</t>
+          <t>-35.45437262647973,174.4278819821673</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -18600,7 +18643,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-35.454375441904645,174.42786503008782</t>
+          <t>-35.454375190847735,174.42786654173827</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -18647,7 +18690,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-35.45437970986911,174.42783933202858</t>
+          <t>-35.45437924362116,174.42784213937972</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -18694,7 +18737,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-35.454383762637086,174.42781492966714</t>
+          <t>-35.45438336812006,174.42781730511837</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -18741,7 +18784,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-35.45438408542371,174.4278129861161</t>
+          <t>-35.454383726771916,174.42781514561725</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -18788,7 +18831,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-35.4543799967909,174.42783760442788</t>
+          <t>-35.45437960227344,174.42783997987885</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -18835,7 +18878,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-35.45437644613205,174.4278589834859</t>
+          <t>-35.454376051614176,174.42786135893667</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -18882,7 +18925,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-35.45438234596211,174.42782345969644</t>
+          <t>-35.45438196937752,174.42782572717252</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -18929,7 +18972,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-35.454381646590704,174.42782767072345</t>
+          <t>-35.454381377601656,174.42782929034917</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -18976,7 +19019,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-35.45438048097135,174.4278346891016</t>
+          <t>-35.45438022991484,174.42783620075227</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -19023,7 +19066,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-35.45438360124376,174.42781590144264</t>
+          <t>-35.45438333225487,174.42781752106848</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -19070,7 +19113,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-35.45438180798412,174.42782669894797</t>
+          <t>-35.4543815927929,174.42782799464857</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -19117,7 +19160,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-35.454383744704494,174.4278150376422</t>
+          <t>-35.45438365504154,174.4278155775175</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -19211,7 +19254,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-35.454388317512084,174.42778750400117</t>
+          <t>-35.45438826371438,174.42778782792635</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -19258,7 +19301,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-35.45438727742306,174.42779376655508</t>
+          <t>-35.454387223625346,174.4277940904803</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -19305,7 +19348,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-35.45437834699029,174.42784753813183</t>
+          <t>-35.45437814973146,174.4278487258573</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -19352,7 +19395,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-35.454376661323614,174.42785768778546</t>
+          <t>-35.454376392334176,174.427859307411</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -19399,7 +19442,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-35.45437393556295,174.42787409999036</t>
+          <t>-35.454373738303865,174.4278752877157</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -19446,7 +19489,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-35.45437085114689,174.4278926716945</t>
+          <t>-35.45437070768561,174.42789353549466</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -19493,7 +19536,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-35.45437443767692,174.42787107668954</t>
+          <t>-35.45437440181164,174.42787129263962</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -19540,7 +19583,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-35.45439543673349,174.42774463789456</t>
+          <t>-35.45439583124911,174.42774226244256</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -19587,7 +19630,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-35.45440917302242,174.42766192896082</t>
+          <t>-35.454409657198696,174.4276590136323</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -19634,7 +19677,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-35.45440325530691,174.42769756075057</t>
+          <t>-35.45440330910438,174.42769723682525</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -19681,7 +19724,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-35.45438751054649,174.42779236287925</t>
+          <t>-35.45438749261393,174.42779247085429</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -19728,7 +19771,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-35.45437926155376,174.42784203140468</t>
+          <t>-35.454378920834074,174.4278440829305</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -19775,7 +19818,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-35.45437780901166,174.42785077738304</t>
+          <t>-35.454377414493926,174.4278531528339</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -19822,7 +19865,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-35.45437452734012,174.42787053681442</t>
+          <t>-35.45437395349558,174.42787399201535</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -19869,7 +19912,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-35.45437836492291,174.4278474301568</t>
+          <t>-35.45437789867476,174.42785023750787</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -19916,7 +19959,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-35.45437583642259,174.42786265463707</t>
+          <t>-35.454375441904645,174.42786503008782</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -19963,7 +20006,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-35.454379458812525,174.4278408436792</t>
+          <t>-35.45437901049716,174.4278435430553</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -20010,7 +20053,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-35.45438304533337,174.42781924866935</t>
+          <t>-35.45438281220964,174.42782065234508</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -20057,7 +20100,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-35.45437960227344,174.42783997987885</t>
+          <t>-35.45437953054298,174.42784041177904</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -20104,7 +20147,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-35.454382059040526,174.42782518729726</t>
+          <t>-35.45438216663612,174.42782453944693</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -20151,7 +20194,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-35.454379458812525,174.4278408436792</t>
+          <t>-35.454379638138654,174.42783976392877</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -20198,7 +20241,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-35.45437843665338,174.42784699825663</t>
+          <t>-35.454378705642654,174.42784537863102</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -20245,7 +20288,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-35.454380732027865,174.42783317745096</t>
+          <t>-35.45438091135394,174.42783209770045</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -20292,7 +20335,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-35.45437901049716,174.4278435430553</t>
+          <t>-35.454379315351616,174.42784170747956</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -20339,7 +20382,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-35.45437866977743,174.4278455945811</t>
+          <t>-35.45437881323836,174.42784473078078</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -20386,7 +20429,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-35.45437786280952,174.42785045345792</t>
+          <t>-35.45437762968542,174.42785185713345</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -20433,7 +20476,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-35.45437979953218,174.42783879215338</t>
+          <t>-35.45437947674514,174.42784073570417</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -20480,7 +20523,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-35.454377970405254,174.42784980560768</t>
+          <t>-35.45437768348328,174.42785153320833</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -20527,7 +20570,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-35.454376392334176,174.427859307411</t>
+          <t>-35.454376248873125,174.4278601712113</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -20621,7 +20664,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-35.45438564555861,174.42780359228593</t>
+          <t>-35.45438586074956,174.42780229658518</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -20668,7 +20711,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-35.454382112838324,174.4278248633721</t>
+          <t>-35.45438232802951,174.42782356767148</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -20715,7 +20758,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-35.45437899256453,174.42784365103034</t>
+          <t>-35.45437868771006,174.42784548660606</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -20762,7 +20805,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-35.45438162865809,174.4278277786985</t>
+          <t>-35.45438148519728,174.4278286424989</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -20809,7 +20852,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-35.454375441904645,174.42786503008782</t>
+          <t>-35.45437513704982,174.42786686566336</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -20856,7 +20899,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-35.45437757588754,174.42785218105857</t>
+          <t>-35.454377288965546,174.4278539086592</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -20903,7 +20946,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-35.45438039130832,174.42783522897685</t>
+          <t>-35.45438005058873,174.42783728050273</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -20950,7 +20993,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-35.45438399576077,174.4278135259914</t>
+          <t>-35.45438395989558,174.42781374194152</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -21044,7 +21087,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-35.454385502097956,174.42780445608645</t>
+          <t>-35.45438560969344,174.42780380823604</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -21091,7 +21134,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-35.45438840717491,174.4277869641258</t>
+          <t>-35.454388496837744,174.42778642425046</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -21138,7 +21181,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-35.45438968038688,174.4277792978957</t>
+          <t>-35.45438987764501,174.42777811016992</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -21185,7 +21228,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-35.45439140191213,174.42776893228844</t>
+          <t>-35.45439168883291,174.4277672046872</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -21232,7 +21275,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-35.45439125845173,174.42776979608908</t>
+          <t>-35.45439081013792,174.427772495466</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -21279,7 +21322,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-35.454402017965094,174.4277050110332</t>
+          <t>-35.454401533787724,174.4277079263611</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -21326,7 +21369,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-35.4544011213403,174.42771040978857</t>
+          <t>-35.454400744757805,174.42771267726576</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -21373,7 +21416,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-35.45439911289987,174.4277225030001</t>
+          <t>-35.45439895150729,174.427723474776</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -21420,7 +21463,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-35.454390917733235,174.42777184761556</t>
+          <t>-35.454390684610054,174.42777325129154</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -21467,7 +21510,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-35.4543850358508,174.427807263438</t>
+          <t>-35.454384784794605,174.42780877508883</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -21514,7 +21557,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-35.45438239975991,174.42782313577126</t>
+          <t>-35.454382363894716,174.4278233517214</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -21561,7 +21604,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-35.45438119827562,174.42783037009968</t>
+          <t>-35.454381072747374,174.42783112592502</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -21608,7 +21651,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-35.45438171832111,174.42782723882326</t>
+          <t>-35.45438152106248,174.42782842654879</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -21655,7 +21698,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-35.45437868771006,174.42784548660606</t>
+          <t>-35.45437879530574,174.4278448387558</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -21702,7 +21745,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-35.45437587228785,174.427862438687</t>
+          <t>-35.45437581848996,174.4278627626121</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -21749,7 +21792,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-35.4543763564689,174.4278595233611</t>
+          <t>-35.45437642819943,174.42785909146093</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -21796,7 +21839,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-35.4543763564689,174.4278595233611</t>
+          <t>-35.45437642819943,174.42785909146093</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -21843,7 +21886,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-35.45437693031303,174.4278560681599</t>
+          <t>-35.454376984110915,174.42785574423482</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -21890,7 +21933,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-35.454376679256235,174.42785757981042</t>
+          <t>-35.454376607525724,174.42785801171055</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -21937,7 +21980,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-35.45437578262468,174.4278629785622</t>
+          <t>-35.45437556743308,174.4278642742626</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -21984,7 +22027,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-35.45437578262468,174.4278629785622</t>
+          <t>-35.45437556743308,174.4278642742626</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -22031,7 +22074,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-35.45437680478464,174.42785682398517</t>
+          <t>-35.454376589593096,174.42785811968562</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -22078,7 +22121,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-35.45437745035918,174.42785293688382</t>
+          <t>-35.454377271032925,174.4278540166342</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -22125,7 +22168,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-35.45438672151328,174.42779711378213</t>
+          <t>-35.45438666771555,174.42779743770734</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -22219,7 +22262,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-35.45438776160247,174.42779085122828</t>
+          <t>-35.454387600209344,174.4277918230039</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -22266,7 +22309,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-35.45438711602991,174.4277947383307</t>
+          <t>-35.45438708016476,174.4277949542808</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -22313,7 +22356,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-35.45438510758114,174.42780683153777</t>
+          <t>-35.454384964120464,174.42780769533826</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -22360,7 +22403,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-35.45438795886074,174.42778966350252</t>
+          <t>-35.4543879767933,174.42778955552745</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -22407,7 +22450,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-35.4543879767933,174.42778955552745</t>
+          <t>-35.45438795886074,174.42778966350252</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -22454,7 +22497,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-35.45438672151328,174.42779711378213</t>
+          <t>-35.45438670358072,174.42779722175717</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -22501,7 +22544,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-35.454386613917826,174.42779776163252</t>
+          <t>-35.454386560120106,174.42779808555773</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -22548,7 +22591,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-35.454384748929435,174.42780899103894</t>
+          <t>-35.45438465926652,174.42780953091423</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -22595,7 +22638,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-35.45438207697312,174.42782507932222</t>
+          <t>-35.454382059040526,174.42782518729726</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -22642,7 +22685,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-35.45437811386623,174.42784894180735</t>
+          <t>-35.4543780062705,174.42784958965763</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -22689,7 +22732,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-35.454376248873125,174.4278601712113</t>
+          <t>-35.45437603368156,174.42786146691168</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -22736,7 +22779,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-35.454373630708,174.42787593556585</t>
+          <t>-35.4543733975836,174.42787733924118</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -22783,7 +22826,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-35.4543753701741,174.42786546198792</t>
+          <t>-35.4543751729151,174.42786664971328</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -22830,7 +22873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-35.45437441974427,174.42787118466458</t>
+          <t>-35.45437422248523,174.42787237238988</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -22877,7 +22920,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-35.454376661323614,174.42785768778546</t>
+          <t>-35.45437651786258,174.42785855158576</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -22924,7 +22967,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-35.45437597988365,174.4278617908368</t>
+          <t>-35.45437589022049,174.42786233071197</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -22971,7 +23014,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-35.454376410266796,174.42785919943597</t>
+          <t>-35.45437628473839,174.42785995526123</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -23018,7 +23061,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-35.45438006852134,174.42783717252766</t>
+          <t>-35.45437994299306,174.42783792835297</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -23065,7 +23108,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-35.454379458812525,174.4278408436792</t>
+          <t>-35.45437924362116,174.42784213937972</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -23112,7 +23155,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-35.45438826371438,174.42778782792635</t>
+          <t>-35.454388335444655,174.4277873960261</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -23159,7 +23202,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-35.45438605800794,174.42780110885948</t>
+          <t>-35.4543860042102,174.4278014327847</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -23206,7 +23249,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-35.45439332069445,174.4277573789548</t>
+          <t>-35.454393338627,174.42775727097973</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -23253,7 +23296,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-35.45439021836362,174.4277760586435</t>
+          <t>-35.454390039038046,174.42777713839425</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -23300,7 +23343,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-35.45438751054649,174.42779236287925</t>
+          <t>-35.45438738501849,174.4277931187047</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -23347,7 +23390,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-35.454385824884405,174.42780251253532</t>
+          <t>-35.45438569935635,174.42780326836075</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -23394,7 +23437,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-35.45438553796311,174.42780424013628</t>
+          <t>-35.45438539450246,174.4278051039368</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -23441,7 +23484,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-35.45438408542371,174.4278129861161</t>
+          <t>-35.454383941962995,174.42781384991656</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -23488,7 +23531,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-35.45438223836652,174.42782410754674</t>
+          <t>-35.45438225629912,174.4278239995717</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -23535,7 +23578,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-35.454379297418996,174.4278418154546</t>
+          <t>-35.45437936914945,174.4278413835544</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -23582,7 +23625,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-35.45438318879413,174.4278183848689</t>
+          <t>-35.454383206726725,174.42781827689387</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -23629,7 +23672,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-35.454381305871244,174.42782972224938</t>
+          <t>-35.454381377601656,174.42782929034917</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -23676,7 +23719,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-35.45438378056967,174.42781482169207</t>
+          <t>-35.45438385230004,174.42781438979185</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -23723,7 +23766,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-35.45438257908588,174.42782205602074</t>
+          <t>-35.45438265081627,174.42782162412055</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -23770,7 +23813,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-35.45437771934854,174.42785131725824</t>
+          <t>-35.454377826944274,174.427850669408</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -23817,7 +23860,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-35.45437841872076,174.42784710623167</t>
+          <t>-35.45437868771006,174.42784548660606</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -23864,7 +23907,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-35.45438578901925,174.42780272848543</t>
+          <t>-35.454385824884405,174.42780251253532</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -23911,7 +23954,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-35.45438022991484,174.42783620075227</t>
+          <t>-35.45438021198222,174.4278363087273</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -23958,7 +24001,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-35.45437920775592,174.42784235532983</t>
+          <t>-35.45437910016024,174.42784300318007</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -24005,7 +24048,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-35.4543829556704,174.42781978854464</t>
+          <t>-35.45438283014223,174.42782054437</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -24052,7 +24095,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-35.45438419301924,174.42781233826577</t>
+          <t>-35.45438399576077,174.4278135259914</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -24099,7 +24142,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-35.45438975211711,174.42777886599544</t>
+          <t>-35.45438966245432,174.4277794058708</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -24146,7 +24189,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-35.454388317512084,174.42778750400117</t>
+          <t>-35.45438820991669,174.4277881518516</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -24193,7 +24236,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-35.45438880169135,174.42778458867426</t>
+          <t>-35.454388729961096,174.42778502057453</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -24240,7 +24283,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-35.454388138186424,174.42778858375186</t>
+          <t>-35.454388120253846,174.42778869172693</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -24287,7 +24330,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-35.45438641665948,174.42779894935822</t>
+          <t>-35.45438650632237,174.4277984094829</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -24334,7 +24377,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-35.4543861656034,174.42780046100913</t>
+          <t>-35.454386291131456,174.42779970518367</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -24381,7 +24424,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-35.454387869197895,174.42779020337787</t>
+          <t>-35.45438810232129,174.427788799702</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -24428,7 +24471,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-35.45437775521378,174.42785110130816</t>
+          <t>-35.4543780062705,174.42784958965763</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -24475,7 +24518,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-35.454380821690904,174.4278326375757</t>
+          <t>-35.45438089342132,174.42783220567551</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -24522,7 +24565,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-35.454383690906724,174.42781536156735</t>
+          <t>-35.45438365504154,174.4278155775175</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -24569,7 +24612,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-35.454388837556486,174.42778437272412</t>
+          <t>-35.45438838924235,174.42778707210087</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -24616,7 +24659,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-35.45438847890517,174.42778653222553</t>
+          <t>-35.45438826371438,174.42778782792635</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -24663,7 +24706,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-35.4543930337738,174.42775910655612</t>
+          <t>-35.45439290824601,174.42775986238172</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -24710,7 +24753,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-35.454390415621724,174.4277748709177</t>
+          <t>-35.45439037975662,174.42777508686783</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -24757,7 +24800,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-35.45438166452331,174.42782756274838</t>
+          <t>-35.454381897647124,174.42782615907274</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -24804,7 +24847,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-35.45438119827562,174.42783037009968</t>
+          <t>-35.454381305871244,174.42782972224938</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -24851,7 +24894,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-35.45437988919522,174.42783825227812</t>
+          <t>-35.45437985333001,174.42783846822823</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -24898,7 +24941,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-35.45437958434083,174.4278400878539</t>
+          <t>-35.454379638138654,174.42783976392877</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -24945,7 +24988,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-35.45437997885828,174.42783771240292</t>
+          <t>-35.45438006852134,174.42783717252766</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -24992,7 +25035,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-35.4543795664082,174.42784019582894</t>
+          <t>-35.454379638138654,174.42783976392877</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -25039,7 +25082,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-35.45437834699029,174.42784753813183</t>
+          <t>-35.45437841872076,174.42784710623167</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -25086,7 +25129,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-35.454378615979564,174.42784591850622</t>
+          <t>-35.454378920834074,174.4278440829305</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -25133,7 +25176,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-35.454377378628685,174.42785336878396</t>
+          <t>-35.45437752208968,174.4278525049837</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -25180,7 +25223,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-35.454375316376186,174.427865785913</t>
+          <t>-35.45437554950044,174.4278643822376</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -25227,7 +25270,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-35.4543733975836,174.42787733924118</t>
+          <t>-35.45437343344889,174.42787712329115</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -25274,7 +25317,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-35.45436882475573,174.42790487287138</t>
+          <t>-35.45436895028443,174.42790411704627</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -25321,7 +25364,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-35.45436453884478,174.4279306788982</t>
+          <t>-35.45436464644093,174.4279300310482</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -25368,7 +25411,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-35.45436274557497,174.4279414763981</t>
+          <t>-35.454362835238484,174.42794093652313</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -25415,7 +25458,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-35.454356630517744,174.4279782958689</t>
+          <t>-35.45435657671953,174.42797861979386</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -25462,7 +25505,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-35.45435980461042,174.42795918429684</t>
+          <t>-35.45435982254314,174.42795907632186</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -25509,7 +25552,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-35.45435980461042,174.42795918429684</t>
+          <t>-35.45435982254314,174.42795907632186</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -25556,7 +25599,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-35.454362906969294,174.42794050462314</t>
+          <t>-35.454362853171176,174.42794082854812</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -25603,7 +25646,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-35.45436500509477,174.42792787154815</t>
+          <t>-35.454365023027464,174.42792776357317</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -25650,7 +25693,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-35.45436719288233,174.42791469859742</t>
+          <t>-35.45436724668038,174.42791437467238</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -25697,7 +25740,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-35.45436918340913,174.4279027133711</t>
+          <t>-35.45436929100514,174.42790206552098</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -25744,7 +25787,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-35.454379817464776,174.4278386841783</t>
+          <t>-35.454379907127844,174.42783814430308</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -25791,7 +25834,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-35.45438288394003,174.42782022044486</t>
+          <t>-35.45438302740079,174.42781935664442</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -25838,7 +25881,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-35.45437831112504,174.42784775408194</t>
+          <t>-35.45437859804695,174.42784602648126</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -25885,7 +25928,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-35.45437088701222,174.42789245574446</t>
+          <t>-35.454371012540825,174.42789169991931</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -25932,7 +25975,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-35.45437167604914,174.42788770484356</t>
+          <t>-35.45437189124099,174.42788640914327</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -25979,7 +26022,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-35.45436986485046,174.4278986103205</t>
+          <t>-35.454369954513794,174.42789807044542</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -26026,7 +26069,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-35.454369685523815,174.42789969007066</t>
+          <t>-35.454369667591145,174.42789979804567</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -26073,7 +26116,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-35.45436900408244,174.42790379312123</t>
+          <t>-35.45436889648642,174.42790444097133</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -26120,7 +26163,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-35.4543657582677,174.42792333659798</t>
+          <t>-35.454365632738885,174.427924092423</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -26167,7 +26210,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-35.4543657582677,174.42792333659798</t>
+          <t>-35.454365632738885,174.427924092423</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -26214,7 +26257,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-35.45436828677559,174.42790811212177</t>
+          <t>-35.45436816124687,174.42790886794685</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -26261,7 +26304,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-35.45436955999516,174.42790044589574</t>
+          <t>-35.45436950619715,174.42790076982084</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -26308,7 +26351,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-35.454372249894064,174.4278842496428</t>
+          <t>-35.4543721602308,174.42788478951795</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -26355,7 +26398,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-35.454377271032925,174.4278540166342</t>
+          <t>-35.454377288965546,174.4278539086592</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -26402,7 +26445,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-35.45437589022049,174.42786233071197</t>
+          <t>-35.45437580055732,174.42786287058715</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -26449,7 +26492,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-35.45436753360323,174.42791264707222</t>
+          <t>-35.45436758740125,174.4279123231472</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -26496,7 +26539,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-35.45437117393475,174.42789072814412</t>
+          <t>-35.45437133532866,174.42788975636896</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -26543,7 +26586,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-35.45437160431852,174.42788813674363</t>
+          <t>-35.45437167604914,174.42788770484356</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -26590,7 +26633,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-35.454372913402125,174.4278802545669</t>
+          <t>-35.45437296720007,174.42787993064184</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -26637,7 +26680,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-35.454371084271465,174.42789126801924</t>
+          <t>-35.4543711560021,174.42789083611913</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -26684,7 +26727,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-35.454370223503744,174.42789645082016</t>
+          <t>-35.454370169705754,174.4278967747452</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -26731,7 +26774,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-35.45437063595497,174.4278939673947</t>
+          <t>-35.45437051042634,174.42789472321985</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -26778,7 +26821,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-35.454367085286265,174.4279153464475</t>
+          <t>-35.45436692389214,174.42791631822254</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -26825,7 +26868,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-35.454366619036556,174.4279181537977</t>
+          <t>-35.45436643970973,174.42791923354775</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -26872,7 +26915,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-35.45437300306537,174.42787971469178</t>
+          <t>-35.45437269821033,174.42788155026722</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -26919,7 +26962,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-35.454372716142984,174.4278814422922</t>
+          <t>-35.454372285759355,174.42788403369275</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -26966,7 +27009,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-35.454375961951015,174.42786189881184</t>
+          <t>-35.45437565709626,174.42786373438742</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -27013,7 +27056,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-35.454373774169156,174.4278750717656</t>
+          <t>-35.454373469314184,174.4278769073411</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -27060,7 +27103,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-35.454372249894064,174.4278842496428</t>
+          <t>-35.45437194503894,174.4278860852182</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -27107,7 +27150,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>-35.454377271032925,174.4278540166342</t>
+          <t>-35.454376984110915,174.42785574423482</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -27154,7 +27197,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-35.454378454586006,174.42784689028161</t>
+          <t>-35.45437832905766,174.4278476461069</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -27201,7 +27244,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-35.454377916607385,174.4278501295328</t>
+          <t>-35.45437784487689,174.42785056143296</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -27248,7 +27291,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-35.45438071409526,174.427833285426</t>
+          <t>-35.45438060649962,174.42783393327628</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -27295,7 +27338,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-35.45438322465931,174.4278181689188</t>
+          <t>-35.454383117063756,174.42781881676913</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -27342,7 +27385,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-35.454384892390124,174.42780812723848</t>
+          <t>-35.45438476686203,174.4278088830639</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -27389,7 +27432,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>-35.45438401369335,174.42781341801634</t>
+          <t>-35.454383888165225,174.42781417384174</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -27436,7 +27479,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-35.45438008645396,174.42783706455262</t>
+          <t>-35.45437994299306,174.42783792835297</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -27483,7 +27526,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-35.45437947674514,174.42784073570417</t>
+          <t>-35.45437933328423,174.42784159950452</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -27530,7 +27573,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>-35.45437843665338,174.42784699825663</t>
+          <t>-35.454377970405254,174.42784980560768</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -27577,7 +27620,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-35.454373558977416,174.42787636746596</t>
+          <t>-35.45437311066126,174.42787906684163</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -27624,7 +27667,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-35.454371317396024,174.42788986434397</t>
+          <t>-35.454371012540825,174.42789169991931</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -27671,7 +27714,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-35.454369344803155,174.42790174159595</t>
+          <t>-35.45436903994778,174.4279035771712</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -27718,7 +27761,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-35.45436681629605,174.42791696607262</t>
+          <t>-35.45436654730582,174.4279185856977</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -27765,7 +27808,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-35.45436911167846,174.42790314527113</t>
+          <t>-35.45436886062109,174.42790465692136</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -27812,7 +27855,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-35.45436859163102,174.42790627654657</t>
+          <t>-35.4543684123043,174.42790735629669</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -27859,7 +27902,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>-35.45437054629167,174.42789450726983</t>
+          <t>-35.45437036696505,174.42789558702</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -27906,7 +27949,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>-35.454370241436415,174.42789634284514</t>
+          <t>-35.45437009797511,174.42789720664527</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -27953,7 +27996,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-35.454370169705754,174.4278967747452</t>
+          <t>-35.454370080042445,174.42789731462028</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -28000,7 +28043,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-35.45436665490192,174.42791793784767</t>
+          <t>-35.45436660110388,174.4279182617727</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -28047,7 +28090,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-35.454364431248614,174.42793132674822</t>
+          <t>-35.45436435951783,174.4279317586482</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -28094,7 +28137,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>-35.45436538168126,174.4279256040731</t>
+          <t>-35.45436529201781,174.4279261439481</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -28141,7 +28184,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>-35.45436507682554,174.42792743964813</t>
+          <t>-35.45436498716207,174.42792797952313</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -28188,7 +28231,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>-35.454364018796625,174.42793381017324</t>
+          <t>-35.45436403672932,174.42793370219823</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -28235,7 +28278,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-35.45436534581587,174.4279258200231</t>
+          <t>-35.45436529201781,174.4279261439481</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -28282,7 +28325,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>-35.45436652937315,174.42791869367272</t>
+          <t>-35.454366475575085,174.42791901759773</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -28329,7 +28372,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>-35.454367551535896,174.42791253909724</t>
+          <t>-35.45436749773786,174.42791286302224</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -28376,7 +28419,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>-35.45436699562286,174.42791588632252</t>
+          <t>-35.4543669597575,174.42791610227255</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -28423,7 +28466,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>-35.454364377450524,174.42793165067323</t>
+          <t>-35.45436434158514,174.42793186662323</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -28470,7 +28513,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>-35.45436679836338,174.4279170740476</t>
+          <t>-35.45436683422873,174.4279168580976</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -28517,7 +28560,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>-35.45436749773786,174.42791286302224</t>
+          <t>-35.454367551535896,174.42791253909724</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -28564,7 +28607,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>-35.4543679998528,174.42790983972193</t>
+          <t>-35.45436794605477,174.427910163647</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -28611,7 +28654,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>-35.4543679998528,174.42790983972193</t>
+          <t>-35.45436794605477,174.427910163647</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -28658,7 +28701,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>-35.4543747425318,174.42786924111405</t>
+          <t>-35.45437468873388,174.42786956503915</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -28705,7 +28748,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-35.454374383878985,174.42787140061463</t>
+          <t>-35.45437433008107,174.42787172453973</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -28752,7 +28795,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-35.454372787873574,174.42788101039207</t>
+          <t>-35.45437275200828,174.42788122634212</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -28799,7 +28842,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>-35.45437520878038,174.42786643376323</t>
+          <t>-35.4543751729151,174.42786664971328</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -28846,7 +28889,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>-35.454372554749135,174.4278824140674</t>
+          <t>-35.454372465085875,174.42788295394254</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -28893,7 +28936,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>-35.45437160431852,174.42788813674363</t>
+          <t>-35.45437149672259,174.42788878459373</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -28940,7 +28983,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>-35.45437361277534,174.42787604354086</t>
+          <t>-35.454373523112125,174.427876583416</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -28987,7 +29030,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>-35.45436991864846,174.42789828639545</t>
+          <t>-35.45436955999516,174.42790044589574</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -29034,7 +29077,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>-35.454364216056284,174.42793262244822</t>
+          <t>-35.454363893267754,174.42793456599824</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -29081,7 +29124,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>-35.454367085286265,174.4279153464475</t>
+          <t>-35.45436690595946,174.42791642619756</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -29128,7 +29171,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>-35.45436828677559,174.42790811212177</t>
+          <t>-35.45436812538153,174.42790908389688</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -29175,7 +29218,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>-35.454366116921406,174.4279211770979</t>
+          <t>-35.45436597345993,174.42792204089793</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -29222,7 +29265,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>-35.45436687009409,174.42791664214758</t>
+          <t>-35.45436683422873,174.4279168580976</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -29269,7 +29312,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>-35.45436830470827,174.42790800414673</t>
+          <t>-35.45436819711222,174.42790865199683</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -29316,7 +29359,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>-35.45436830470827,174.42790800414673</t>
+          <t>-35.45436819711222,174.42790865199683</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -29363,7 +29406,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>-35.45436665490192,174.42791793784767</t>
+          <t>-35.454366619036556,174.4279181537977</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -29410,7 +29453,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-35.45436209999761,174.42794536349794</t>
+          <t>-35.45436201033406,174.42794590337292</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -29457,7 +29500,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>-35.45435980461042,174.42795918429684</t>
+          <t>-35.45435973287954,174.42795961619677</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -29504,7 +29547,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>-35.45435980461042,174.42795918429684</t>
+          <t>-35.45435973287954,174.42795961619677</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -29551,7 +29594,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>-35.454354442723314,174.42799146881597</t>
+          <t>-35.454354317194074,174.42799222464078</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -29598,7 +29641,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>-35.454357365759826,174.42797386889472</t>
+          <t>-35.454357311961616,174.42797419281968</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -29645,7 +29688,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>-35.45435628979575,174.42798034739351</t>
+          <t>-35.45435630772848,174.42798023941853</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -29692,7 +29735,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>-35.45435628979575,174.42798034739351</t>
+          <t>-35.45435630772848,174.42798023941853</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -29739,7 +29782,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>-35.45435783201081,174.4279710615452</t>
+          <t>-35.45435781407807,174.4279711695202</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -29786,7 +29829,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>-35.45435975081227,174.42795950822182</t>
+          <t>-35.4543596970141,174.42795983214677</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -29833,7 +29876,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>-35.45436068331351,174.42795389352239</t>
+          <t>-35.45436064744808,174.42795410947235</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -29880,7 +29923,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>-35.4543635346138,174.4279367254982</t>
+          <t>-35.4543635166811,174.4279368334732</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -29927,7 +29970,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>-35.45436057571722,174.42795454137232</t>
+          <t>-35.454360539851784,174.42795475732228</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -29974,7 +30017,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>-35.45436071917893,174.4279536775724</t>
+          <t>-35.45436073711165,174.42795356959738</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -30021,7 +30064,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>-35.45436071917893,174.4279536775724</t>
+          <t>-35.45436073711165,174.42795356959738</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -30068,7 +30111,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>-35.45436213586301,174.42794514754794</t>
+          <t>-35.45436215379572,174.427945039573</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -30115,7 +30158,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>-35.45436213586301,174.42794514754794</t>
+          <t>-35.45436215379572,174.427945039573</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -30162,7 +30205,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>-35.45436132889113,174.42795000642266</t>
+          <t>-35.45436138268928,174.42794968249768</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -30209,7 +30252,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>-35.45436222552654,174.427944607673</t>
+          <t>-35.45436224345925,174.427944499698</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -30256,7 +30299,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>-35.45436025292835,174.42795648492213</t>
+          <t>-35.454360270861066,174.42795637694712</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -30350,7 +30393,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>-35.45436170547805,174.42794773894784</t>
+          <t>-35.45436175927615,174.42794741502283</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -30397,7 +30440,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>-35.4543616158145,174.42794827882278</t>
+          <t>-35.454361633747205,174.4279481708478</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -30491,7 +30534,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>-35.45436062951536,174.42795421744734</t>
+          <t>-35.454360539851784,174.42795475732228</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -30538,7 +30581,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>-35.454357580952575,174.42797257319498</t>
+          <t>-35.45435732989434,174.4279740848447</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -30585,7 +30628,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>-35.45435799340535,174.42797008977038</t>
+          <t>-35.454357724414415,174.4279717093951</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -30632,7 +30675,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>-35.45435587734277,174.42798283081797</t>
+          <t>-35.45435560835166,174.42798445044264</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -30679,7 +30722,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>-35.45435327709454,174.42799848718911</t>
+          <t>-35.45435313363252,174.42799935098887</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -30726,7 +30769,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>-35.454356612585,174.4279784038439</t>
+          <t>-35.4543563615267,174.4279799154936</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -30773,7 +30816,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>-35.45435499863842,174.4279881215918</t>
+          <t>-35.4543548731092,174.42798887741662</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -30820,7 +30863,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>-35.45435697123969,174.4279762443443</t>
+          <t>-35.45435680984509,174.42797721611913</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -30867,7 +30910,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>-35.45435829826172,174.42796825419566</t>
+          <t>-35.4543581547999,174.42796911799553</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -30914,7 +30957,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>-35.45435637945943,174.42797980751862</t>
+          <t>-35.45435612840111,174.4279813191683</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -30961,7 +31004,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>-35.45436222552654,174.427944607673</t>
+          <t>-35.45436159788179,174.4279483867978</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -31008,7 +31051,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>-35.45436028879378,174.42795626897214</t>
+          <t>-35.454359786677685,174.42795929227182</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -31055,7 +31098,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>-35.45435964321594,174.42796015607175</t>
+          <t>-35.45435914109976,174.42796317937135</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -31102,7 +31145,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>-35.454360988169626,174.42795205794752</t>
+          <t>-35.45436052191908,174.42795486529727</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -31149,7 +31192,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>-35.45435901557071,174.42796393519626</t>
+          <t>-35.454358674848955,174.427965986721</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -31196,7 +31239,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>-35.45435975081227,174.42795950822182</t>
+          <t>-35.45435962528323,174.4279602640467</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -31243,7 +31286,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>-35.45436263797875,174.4279421242481</t>
+          <t>-35.454362422786296,174.42794341994804</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -31290,7 +31333,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>-35.45436036052464,174.4279558370722</t>
+          <t>-35.45436025292835,174.42795648492213</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -31337,7 +31380,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>-35.45436247658441,174.42794309602306</t>
+          <t>-35.454362368988185,174.42794374387302</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -31384,7 +31427,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>-35.45436030672649,174.42795616099716</t>
+          <t>-35.454360234995626,174.42795659289712</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -31431,7 +31474,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>-35.45436170547805,174.42794773894784</t>
+          <t>-35.454361633747205,174.4279481708478</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -31478,7 +31521,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>-35.45436114956404,174.42795108617258</t>
+          <t>-35.4543610957659,174.42795141009756</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -31525,7 +31568,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>-35.454361866872404,174.42794676717287</t>
+          <t>-35.454361777208874,174.42794730704784</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -31572,7 +31615,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>-35.45436075504437,174.42795346162242</t>
+          <t>-35.45436079090978,174.42795324567243</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -31619,7 +31662,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>-35.45436091643877,174.42795248984748</t>
+          <t>-35.45436089850606,174.42795259782247</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -31713,7 +31756,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>-35.45436025292835,174.42795648492213</t>
+          <t>-35.45436028879378,174.42795626897214</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -31760,7 +31803,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>-35.45436213586301,174.42794514754794</t>
+          <t>-35.45436215379572,174.427945039573</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -31807,7 +31850,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>-35.454362368988185,174.42794374387302</t>
+          <t>-35.45436240485359,174.42794352792305</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -31854,7 +31897,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>-35.454360808842495,174.42795313769741</t>
+          <t>-35.45436091643877,174.42795248984748</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -31901,7 +31944,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>-35.45436149028553,174.42794903464772</t>
+          <t>-35.4543616158145,174.42794827882278</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -31948,7 +31991,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>-35.4543614364874,174.4279493585727</t>
+          <t>-35.45436152615095,174.42794881869776</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -31984,6 +32027,53 @@
       <c r="I342" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>-35.45436088057336,174.42795270579745</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>-35.45510381263507,174.42811355296828</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>-35.45572062891705,174.4286295788724</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>-35.45628686491789,174.42923549597754</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>-35.45673682270985,174.42997494513875</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>-35.45703728721721,174.43080724365763</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>-35.45722230835744,174.43170141965095</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
